--- a/cash_tracker/BNYMCashReconc.xlsx
+++ b/cash_tracker/BNYMCashReconc.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="381" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="719" uniqueCount="190">
   <si>
     <t>From</t>
   </si>
@@ -154,7 +154,7 @@
     <t>LUCID PRIME FUND AC</t>
   </si>
   <si>
-    <t>HXSWING162387</t>
+    <t>NO REF</t>
   </si>
   <si>
     <t>Settled</t>
@@ -166,7 +166,7 @@
     <t>CASH DEPOSIT</t>
   </si>
   <si>
-    <t>CREDIT</t>
+    <t>CR-MONEY TRANSFER CREDIT</t>
   </si>
   <si>
     <t>USD</t>
@@ -175,40 +175,40 @@
     <t>NYG</t>
   </si>
   <si>
-    <t>2039746541701002-31</t>
+    <t>6011564541201002-31</t>
   </si>
   <si>
-    <t>240506B01GL8</t>
+    <t>80949857</t>
   </si>
   <si>
-    <t>CR-MONEY TRANSFER CREDIT</t>
+    <t>6017436541201002-31</t>
   </si>
   <si>
-    <t>6018777541701002-31</t>
+    <t>W05010003840</t>
   </si>
   <si>
-    <t>MRGN FFI 1</t>
+    <t>6029589541201002-31</t>
+  </si>
+  <si>
+    <t>HXSWING162270</t>
   </si>
   <si>
     <t>CASH WITHDRAW</t>
   </si>
   <si>
-    <t>DR-MONEY TRANSFER DEBIT</t>
-  </si>
-  <si>
-    <t>6017355541701001-31</t>
-  </si>
-  <si>
-    <t>HXSWING162386</t>
-  </si>
-  <si>
     <t>DEBIT</t>
   </si>
   <si>
-    <t>2039750541701001-31</t>
+    <t>2040488541201001-31</t>
   </si>
   <si>
-    <t>162378MSTR</t>
+    <t>HXSWING162266</t>
+  </si>
+  <si>
+    <t>2040487541201001-31</t>
+  </si>
+  <si>
+    <t>WRT5563756</t>
   </si>
   <si>
     <t>ACTUAL SETTLEMENT</t>
@@ -217,70 +217,70 @@
     <t>BUY</t>
   </si>
   <si>
+    <t>Purchase</t>
+  </si>
+  <si>
+    <t>863162AC7</t>
+  </si>
+  <si>
+    <t>US863162AC76</t>
+  </si>
+  <si>
+    <t>DEPOSITORY TRUST CPNY</t>
+  </si>
+  <si>
+    <t>1241210367529</t>
+  </si>
+  <si>
+    <t>162177MSTR</t>
+  </si>
+  <si>
     <t>Open Reverse Repo Pay</t>
   </si>
   <si>
-    <t>35564KL72</t>
+    <t>43283YAD5</t>
   </si>
   <si>
-    <t>US35564KL729</t>
+    <t>US43283YAD58</t>
   </si>
   <si>
     <t>DEPOSITORY TRUST CPN REV REPO</t>
   </si>
   <si>
-    <t>1241270184736</t>
+    <t>1241220229952</t>
   </si>
   <si>
-    <t>162372MSTR</t>
+    <t>162176MSTR</t>
   </si>
   <si>
-    <t>46652RAJ3</t>
+    <t>1241220229950</t>
   </si>
   <si>
-    <t>US46652RAJ32</t>
+    <t>162178MSTR</t>
   </si>
   <si>
-    <t>1241240220846</t>
+    <t>617939BQ5</t>
   </si>
   <si>
-    <t>162379MSTR</t>
+    <t>US617939BQ55</t>
   </si>
   <si>
-    <t>67402CAY2</t>
+    <t>1241220229954</t>
   </si>
   <si>
-    <t>US67402CAY21</t>
+    <t>162179MSTR</t>
   </si>
   <si>
-    <t>1241270185967</t>
+    <t>1241220229957</t>
   </si>
   <si>
-    <t>162371MSTR</t>
+    <t>162175MSTR</t>
   </si>
   <si>
-    <t>694960AD7</t>
+    <t>1241220229946</t>
   </si>
   <si>
-    <t>US694960AD78</t>
-  </si>
-  <si>
-    <t>1241240220844</t>
-  </si>
-  <si>
-    <t>162370MSTR</t>
-  </si>
-  <si>
-    <t>694961AD5</t>
-  </si>
-  <si>
-    <t>US694961AD51</t>
-  </si>
-  <si>
-    <t>1241240220842</t>
-  </si>
-  <si>
-    <t>155814MSTR</t>
+    <t>156003MSTR</t>
   </si>
   <si>
     <t>SELL</t>
@@ -289,34 +289,55 @@
     <t>Close Reverse Repo Pay</t>
   </si>
   <si>
-    <t>055631HH1</t>
+    <t>47047LAJ8</t>
   </si>
   <si>
-    <t>US055631HH13</t>
+    <t>US47047LAJ89</t>
   </si>
   <si>
-    <t>1241090005948</t>
+    <t>1241090006005</t>
   </si>
   <si>
-    <t>162344MSTR</t>
+    <t>156004MSTRCLS</t>
   </si>
   <si>
-    <t>1241230327097</t>
+    <t>1241220231236</t>
   </si>
   <si>
-    <t>155743MSTRCLS</t>
+    <t>156210MSTR</t>
   </si>
   <si>
-    <t>81744KCD6</t>
+    <t>1241090005809</t>
   </si>
   <si>
-    <t>US81744KCD63</t>
+    <t>162275MSTR</t>
   </si>
   <si>
-    <t>1241240221238</t>
+    <t>3137FBPC4</t>
   </si>
   <si>
-    <t>162272MSTRCLS</t>
+    <t>US3137FBPC41</t>
+  </si>
+  <si>
+    <t>FEDERAL RESERVE BK  REVER REPO</t>
+  </si>
+  <si>
+    <t>1241220294022</t>
+  </si>
+  <si>
+    <t>162271MSTR</t>
+  </si>
+  <si>
+    <t>3137H5WW3</t>
+  </si>
+  <si>
+    <t>US3137H5WW32</t>
+  </si>
+  <si>
+    <t>1241220293979</t>
+  </si>
+  <si>
+    <t>162272MSTR</t>
   </si>
   <si>
     <t>3137HBQ72</t>
@@ -325,10 +346,97 @@
     <t>US3137HBQ720</t>
   </si>
   <si>
-    <t>FEDERAL RESERVE BK  REVER REPO</t>
+    <t>1241220293987</t>
   </si>
   <si>
-    <t>1241270321747</t>
+    <t>162189MSTR</t>
+  </si>
+  <si>
+    <t>31424UK39</t>
+  </si>
+  <si>
+    <t>US31424UK390</t>
+  </si>
+  <si>
+    <t>1241220229959</t>
+  </si>
+  <si>
+    <t>162273MSTR</t>
+  </si>
+  <si>
+    <t>38384MK55</t>
+  </si>
+  <si>
+    <t>US38384MK552</t>
+  </si>
+  <si>
+    <t>1241220294364</t>
+  </si>
+  <si>
+    <t>162274MSTR</t>
+  </si>
+  <si>
+    <t>38384NGF6</t>
+  </si>
+  <si>
+    <t>US38384NGF69</t>
+  </si>
+  <si>
+    <t>1241220294365</t>
+  </si>
+  <si>
+    <t>162125MSTRCLS</t>
+  </si>
+  <si>
+    <t>1241220294363</t>
+  </si>
+  <si>
+    <t>155217MSTRCLS</t>
+  </si>
+  <si>
+    <t>3140XPGC7</t>
+  </si>
+  <si>
+    <t>US3140XPGC72</t>
+  </si>
+  <si>
+    <t>1241220294357</t>
+  </si>
+  <si>
+    <t>155321MSTRCLS</t>
+  </si>
+  <si>
+    <t>3618H7G71</t>
+  </si>
+  <si>
+    <t>US3618H7G713</t>
+  </si>
+  <si>
+    <t>1241220294360</t>
+  </si>
+  <si>
+    <t>Purchase- Cash Equivalent (STF)</t>
+  </si>
+  <si>
+    <t>X9USDDGCM</t>
+  </si>
+  <si>
+    <t>X9X9USDDGCM3</t>
+  </si>
+  <si>
+    <t>DREYFUS GOVT CM INST 289</t>
+  </si>
+  <si>
+    <t>STIF LOCATIONS</t>
+  </si>
+  <si>
+    <t>GSF2405010416465</t>
+  </si>
+  <si>
+    <t>Sale- Cash Equivalent(STF)</t>
+  </si>
+  <si>
+    <t>GSF2405010411463</t>
   </si>
   <si>
     <t>2782048400</t>
@@ -337,49 +445,142 @@
     <t>LUCID PRIME MARGIN CASH AC</t>
   </si>
   <si>
-    <t>2039750541701002-31</t>
+    <t>CREDIT</t>
   </si>
   <si>
-    <t>2039746541701001-31</t>
+    <t>2040487541201002-31</t>
   </si>
   <si>
-    <t>5402009780</t>
+    <t>2040488541201002-31</t>
   </si>
   <si>
-    <t>MM TERM INCOME MASTER FUND LLC</t>
+    <t>GSF2405010412942</t>
   </si>
   <si>
-    <t>Purchase- Cash Equivalent (STF)</t>
+    <t>2782078400</t>
   </si>
   <si>
-    <t>EUR</t>
+    <t>LUCID PRIME OPERATING EXPENSE AC</t>
   </si>
   <si>
-    <t>X9EUR050Q</t>
+    <t>CUST BNYMCUST 1</t>
   </si>
   <si>
-    <t>X9X9EUR050Q1</t>
+    <t>DR-MONEY TRANSFER DEBIT</t>
   </si>
   <si>
-    <t>HSBC EUR LIQUIDITY FD AD</t>
+    <t>6041775541101001-31</t>
   </si>
   <si>
-    <t>STIF LOCATIONS</t>
+    <t>GSF2405010413273</t>
   </si>
   <si>
-    <t>GSF2405060935843</t>
+    <t>6577238400</t>
   </si>
   <si>
-    <t>5402009781</t>
+    <t>LUCID OPERATING EXPENSE AC</t>
   </si>
   <si>
-    <t>Sale- Cash Equivalent(STF)</t>
+    <t>CUST BNYMCUST 2</t>
   </si>
   <si>
-    <t>GSF2405060935844</t>
+    <t>6041771541101001-31</t>
   </si>
   <si>
-    <t>05/06/2024 16:22:03</t>
+    <t>GSF2405010413668</t>
+  </si>
+  <si>
+    <t>9904578400</t>
+  </si>
+  <si>
+    <t>LUCID CASH FUND AC</t>
+  </si>
+  <si>
+    <t>162277M</t>
+  </si>
+  <si>
+    <t>1241220294012</t>
+  </si>
+  <si>
+    <t>162276M</t>
+  </si>
+  <si>
+    <t>1241220294010</t>
+  </si>
+  <si>
+    <t>158982MCLS</t>
+  </si>
+  <si>
+    <t>1241220294362</t>
+  </si>
+  <si>
+    <t>GSF2405010412868</t>
+  </si>
+  <si>
+    <t>05/07/2024 17:23:41</t>
+  </si>
+  <si>
+    <t>277540</t>
+  </si>
+  <si>
+    <t>NIC_PO_RECALL</t>
+  </si>
+  <si>
+    <t>MILL_HILL_PAIDOFF_RETURN_INT</t>
+  </si>
+  <si>
+    <t>NOTE_ACCT_DGCXX_INT</t>
+  </si>
+  <si>
+    <t>PO GCPHS_0411</t>
+  </si>
+  <si>
+    <t>PTRUST reverse repo term</t>
+  </si>
+  <si>
+    <t>MHCCF reverse repo term</t>
+  </si>
+  <si>
+    <t>MHCOMF reverse repo term</t>
+  </si>
+  <si>
+    <t>FFI reverse repo open</t>
+  </si>
+  <si>
+    <t>FYI reverse repo open</t>
+  </si>
+  <si>
+    <t>OLIF reverse repo open</t>
+  </si>
+  <si>
+    <t>WFDISLOCII reverse repo open</t>
+  </si>
+  <si>
+    <t>WFEDEN reverse repo open</t>
+  </si>
+  <si>
+    <t>WFROCKIS reverse repo open</t>
+  </si>
+  <si>
+    <t>WFEAGLE reverse repo open</t>
+  </si>
+  <si>
+    <t>GARDA reverse repo open</t>
+  </si>
+  <si>
+    <t>PTRUST reverse repo open</t>
+  </si>
+  <si>
+    <t>278204</t>
+  </si>
+  <si>
+    <t>Receive MHCCF margin</t>
+  </si>
+  <si>
+    <t>Receive PIERPONT margin</t>
+  </si>
+  <si>
+    <t>278207</t>
   </si>
   <si>
     <t>657723</t>
@@ -388,55 +589,13 @@
     <t>RETURN_KICKED_BACK_CSC_WIRE</t>
   </si>
   <si>
-    <t>277540</t>
-  </si>
-  <si>
-    <t>M2L-CMBS reverse repo open</t>
-  </si>
-  <si>
-    <t>NOTE_ACCT_DGCXX_INT</t>
-  </si>
-  <si>
-    <t>MILL_HILL_PAIDOFF_RETURN_INT</t>
-  </si>
-  <si>
-    <t>NIC_PO_RECALL</t>
-  </si>
-  <si>
-    <t>FYI reverse repo term</t>
-  </si>
-  <si>
-    <t>OLIF reverse repo term</t>
-  </si>
-  <si>
-    <t>HIP reverse repo term</t>
-  </si>
-  <si>
-    <t>PTRUST reverse repo term</t>
-  </si>
-  <si>
-    <t>CFCO reverse repo term</t>
-  </si>
-  <si>
-    <t>CFCO reverse repo open</t>
-  </si>
-  <si>
-    <t>BTGARMF reverse repo open</t>
-  </si>
-  <si>
-    <t>278204</t>
-  </si>
-  <si>
-    <t>Receive AO_SMIF margin</t>
-  </si>
-  <si>
-    <t>Pay FFI margin</t>
+    <t>990457</t>
   </si>
   <si>
     <t>Beginning balance</t>
   </si>
   <si>
-    <t>FAILING: NOTE_ACCT_DGCXX_INT</t>
+    <t>UNSETTLED: FFI reverse repo open</t>
   </si>
   <si>
     <t>FAILING: MILL_HILL_PAIDOFF_RETURN_INT</t>
@@ -445,7 +604,13 @@
     <t>FAILING: NIC_PO_RECALL</t>
   </si>
   <si>
-    <t>FAILING: FYI reverse repo term</t>
+    <t>UNSETTLED: OLIF reverse repo open</t>
+  </si>
+  <si>
+    <t>UNSETTLED: FYI reverse repo open</t>
+  </si>
+  <si>
+    <t>FAILING: NOTE_ACCT_DGCXX_INT</t>
   </si>
 </sst>
 </file>
@@ -1296,7 +1461,7 @@
         <v>5</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>112</v>
+        <v>158</v>
       </c>
       <c r="D2" s="11"/>
     </row>
@@ -1342,18 +1507,18 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B6" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="C6" s="3"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="D6" s="4" t="n">
-        <v>492.15</v>
+        <v>34030.08</v>
       </c>
       <c r="E6" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>114</v>
+        <v>160</v>
       </c>
       <c r="H6" s="25"/>
       <c r="I6" s="4"/>
@@ -1361,284 +1526,278 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="12" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="4" t="n">
-        <v>3607058.0</v>
-      </c>
-      <c r="E7" s="9" t="n">
-        <v>162371.0</v>
+        <v>21470.36</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H7" s="25" t="n">
-        <v>-3607058.0</v>
-      </c>
-      <c r="I7" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J7" s="26" t="s">
-        <v>74</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B8" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="3"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="D8" s="4" t="n">
-        <v>2030600.0</v>
-      </c>
-      <c r="E8" s="9" t="n">
-        <v>162372.0</v>
+        <v>51785.909999999996</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>39</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="H8" s="25" t="n">
-        <v>-2030600.0</v>
-      </c>
-      <c r="I8" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J8" s="26" t="s">
-        <v>66</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="H8" s="25"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B9" s="12"/>
       <c r="C9" s="3" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>51785.909999999996</v>
+        <v>193042.2</v>
       </c>
       <c r="E9" s="9" t="s">
         <v>39</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>117</v>
-      </c>
-      <c r="H9" s="25"/>
-      <c r="I9" s="4"/>
-      <c r="J9" s="26"/>
+        <v>163</v>
+      </c>
+      <c r="H9" s="25" t="n">
+        <v>193042.2</v>
+      </c>
+      <c r="I9" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>46</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B10" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C10" s="3"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="D10" s="4" t="n">
-        <v>21470.36</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>39</v>
+        <v>9313445.2889</v>
+      </c>
+      <c r="E10" s="9" t="n">
+        <v>155217.0</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>118</v>
-      </c>
-      <c r="H10" s="25"/>
-      <c r="I10" s="4"/>
-      <c r="J10" s="26"/>
+        <v>164</v>
+      </c>
+      <c r="H10" s="25" t="n">
+        <v>9313445.29</v>
+      </c>
+      <c r="I10" s="4" t="n">
+        <v>0.0010999999940395355</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B11" s="12"/>
       <c r="C11" s="3" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="D11" s="4" t="n">
-        <v>34030.08</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>39</v>
+        <v>6325725.6667</v>
+      </c>
+      <c r="E11" s="9" t="n">
+        <v>155321.0</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>119</v>
-      </c>
-      <c r="H11" s="25"/>
-      <c r="I11" s="4"/>
-      <c r="J11" s="26"/>
+        <v>164</v>
+      </c>
+      <c r="H11" s="25" t="n">
+        <v>6325725.67</v>
+      </c>
+      <c r="I11" s="4" t="n">
+        <v>0.0032999999821186066</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B12" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="C12" s="3"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="3" t="s">
+        <v>159</v>
+      </c>
       <c r="D12" s="4" t="n">
-        <v>2660625.0</v>
+        <v>3449729.7348</v>
       </c>
       <c r="E12" s="9" t="n">
-        <v>162370.0</v>
+        <v>156003.0</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>116</v>
+        <v>165</v>
       </c>
       <c r="H12" s="25" t="n">
-        <v>-2660625.0</v>
+        <v>3449729.73</v>
       </c>
       <c r="I12" s="4" t="n">
-        <v>0.0</v>
+        <v>-0.004800000227987766</v>
       </c>
       <c r="J12" s="26" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="12"/>
       <c r="C13" s="3" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>854432.7344</v>
+        <v>808812.2882</v>
       </c>
       <c r="E13" s="9" t="n">
-        <v>155651.0</v>
+        <v>156004.0</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="H13" s="25"/>
-      <c r="I13" s="4"/>
-      <c r="J13" s="26"/>
+        <v>166</v>
+      </c>
+      <c r="H13" s="25" t="n">
+        <v>808812.29</v>
+      </c>
+      <c r="I13" s="4" t="n">
+        <v>0.0018000000854954123</v>
+      </c>
+      <c r="J13" s="26" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="12"/>
       <c r="C14" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D14" s="4" t="n">
+        <v>1.2180889875E7</v>
+      </c>
+      <c r="E14" s="9" t="n">
+        <v>162125.0</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H14" s="25" t="n">
+        <v>1.218088988E7</v>
+      </c>
+      <c r="I14" s="4" t="n">
+        <v>0.005000000819563866</v>
+      </c>
+      <c r="J14" s="26" t="s">
         <v>115</v>
       </c>
-      <c r="D14" s="4" t="n">
-        <v>854432.7344</v>
-      </c>
-      <c r="E14" s="9" t="n">
-        <v>155743.0</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="H14" s="25" t="n">
-        <v>854432.73</v>
-      </c>
-      <c r="I14" s="4" t="n">
-        <v>-0.004399999976158142</v>
-      </c>
-      <c r="J14" s="26" t="s">
-        <v>90</v>
-      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B15" s="12"/>
-      <c r="C15" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="B15" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C15" s="3"/>
       <c r="D15" s="4" t="n">
-        <v>1299452.8122</v>
+        <v>2426434.0</v>
       </c>
       <c r="E15" s="9" t="n">
-        <v>155814.0</v>
+        <v>162132.0</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>122</v>
-      </c>
-      <c r="H15" s="25" t="n">
-        <v>1299452.81</v>
-      </c>
-      <c r="I15" s="4" t="n">
-        <v>-0.002199999988079071</v>
-      </c>
-      <c r="J15" s="26" t="s">
-        <v>84</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="H15" s="25"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="26"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B16" s="12"/>
-      <c r="C16" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="B16" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="3"/>
       <c r="D16" s="4" t="n">
-        <v>2823252.8819</v>
+        <v>471580.0</v>
       </c>
       <c r="E16" s="9" t="n">
-        <v>162272.0</v>
+        <v>162133.0</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>123</v>
-      </c>
-      <c r="H16" s="25" t="n">
-        <v>2823252.88</v>
-      </c>
-      <c r="I16" s="4" t="n">
-        <v>-0.0019000000320374966</v>
-      </c>
-      <c r="J16" s="26" t="s">
-        <v>95</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="H16" s="25"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="26"/>
     </row>
     <row r="17" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B17" s="12"/>
-      <c r="C17" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="B17" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C17" s="3"/>
       <c r="D17" s="4" t="n">
-        <v>1.235018686E7</v>
+        <v>471580.0</v>
       </c>
       <c r="E17" s="9" t="n">
-        <v>162344.0</v>
+        <v>162134.0</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="H17" s="25" t="n">
-        <v>1.235018686E7</v>
-      </c>
-      <c r="I17" s="4" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="J17" s="26" t="s">
-        <v>86</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="H17" s="25"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="26"/>
     </row>
     <row r="18" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B18" s="12" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="4" t="n">
-        <v>9273000.0</v>
+        <v>512000.0</v>
       </c>
       <c r="E18" s="9" t="n">
-        <v>162378.0</v>
+        <v>162175.0</v>
       </c>
       <c r="F18" s="8" t="s">
-        <v>125</v>
+        <v>170</v>
       </c>
       <c r="H18" s="25" t="n">
-        <v>-9273000.0</v>
+        <v>-512000.0</v>
       </c>
       <c r="I18" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="J18" s="26" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B19" s="12" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="4" t="n">
-        <v>821000.0</v>
+        <v>332000.0</v>
       </c>
       <c r="E19" s="9" t="n">
-        <v>162379.0</v>
+        <v>162176.0</v>
       </c>
       <c r="F19" s="8" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="H19" s="25" t="n">
-        <v>-821000.0</v>
+        <v>-332000.0</v>
       </c>
       <c r="I19" s="4" t="n">
         <v>0.0</v>
@@ -1648,271 +1807,503 @@
       </c>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B20" s="12"/>
-      <c r="C20" s="3" t="s">
-        <v>127</v>
-      </c>
+      <c r="B20" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="3"/>
       <c r="D20" s="4" t="n">
-        <v>381000.0</v>
+        <v>435000.0</v>
       </c>
       <c r="E20" s="9" t="n">
-        <v>162386.0</v>
+        <v>162177.0</v>
       </c>
       <c r="F20" s="8" t="s">
-        <v>52</v>
+        <v>171</v>
       </c>
       <c r="H20" s="25" t="n">
-        <v>381000.0</v>
+        <v>-435000.0</v>
       </c>
       <c r="I20" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="J20" s="26" t="s">
-        <v>98</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B21" s="12" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="4" t="n">
-        <v>381000.0</v>
+        <v>224000.0</v>
       </c>
       <c r="E21" s="9" t="n">
-        <v>162386.0</v>
+        <v>162178.0</v>
       </c>
       <c r="F21" s="8" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="H21" s="25" t="n">
-        <v>-381000.0</v>
+        <v>-224000.0</v>
       </c>
       <c r="I21" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="J21" s="26" t="s">
-        <v>54</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B22" s="12"/>
-      <c r="C22" s="3" t="s">
-        <v>115</v>
-      </c>
+      <c r="B22" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C22" s="3"/>
       <c r="D22" s="4" t="n">
-        <v>381000.0</v>
+        <v>245000.0</v>
       </c>
       <c r="E22" s="9" t="n">
-        <v>162386.0</v>
+        <v>162179.0</v>
       </c>
       <c r="F22" s="8" t="s">
-        <v>128</v>
+        <v>173</v>
       </c>
       <c r="H22" s="25" t="n">
-        <v>381000.0</v>
+        <v>-245000.0</v>
       </c>
       <c r="I22" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="J22" s="26" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
     </row>
     <row r="23" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B23" s="12" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="4" t="n">
-        <v>981000.0</v>
+        <v>9919000.0</v>
       </c>
       <c r="E23" s="9" t="n">
-        <v>162387.0</v>
+        <v>162189.0</v>
       </c>
       <c r="F23" s="8" t="s">
-        <v>129</v>
+        <v>174</v>
       </c>
       <c r="H23" s="25" t="n">
-        <v>-981000.0</v>
+        <v>-9919000.0</v>
       </c>
       <c r="I23" s="4" t="n">
         <v>0.0</v>
       </c>
       <c r="J23" s="26" t="s">
-        <v>51</v>
+        <v>105</v>
       </c>
     </row>
     <row r="24" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B24" s="12"/>
+      <c r="B24" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="C24" s="3"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="8"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="4"/>
-      <c r="J24" s="26"/>
+      <c r="D24" s="4" t="n">
+        <v>2437000.0</v>
+      </c>
+      <c r="E24" s="9" t="n">
+        <v>162271.0</v>
+      </c>
+      <c r="F24" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H24" s="25" t="n">
+        <v>-2437000.0</v>
+      </c>
+      <c r="I24" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J24" s="26" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="25" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B25" s="12"/>
+      <c r="B25" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="C25" s="3"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="8"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="4"/>
-      <c r="J25" s="26"/>
+      <c r="D25" s="4" t="n">
+        <v>2821000.0</v>
+      </c>
+      <c r="E25" s="9" t="n">
+        <v>162272.0</v>
+      </c>
+      <c r="F25" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H25" s="25" t="n">
+        <v>-2821000.0</v>
+      </c>
+      <c r="I25" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J25" s="26" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="26" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B26" s="12"/>
+      <c r="B26" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="C26" s="3"/>
-      <c r="D26" s="4"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="8"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="4"/>
-      <c r="J26" s="26"/>
+      <c r="D26" s="4" t="n">
+        <v>2.7276E7</v>
+      </c>
+      <c r="E26" s="9" t="n">
+        <v>162273.0</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H26" s="25" t="n">
+        <v>-2.7276E7</v>
+      </c>
+      <c r="I26" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J26" s="26" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="27" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B27" s="12"/>
+      <c r="B27" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="C27" s="3"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="8"/>
-      <c r="H27" s="25"/>
-      <c r="I27" s="4"/>
-      <c r="J27" s="26"/>
+      <c r="D27" s="4" t="n">
+        <v>9160000.0</v>
+      </c>
+      <c r="E27" s="9" t="n">
+        <v>162274.0</v>
+      </c>
+      <c r="F27" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H27" s="25" t="n">
+        <v>-9160000.0</v>
+      </c>
+      <c r="I27" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J27" s="26" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B28" s="12"/>
+      <c r="B28" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="8"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="26"/>
+      <c r="D28" s="4" t="n">
+        <v>1916000.0</v>
+      </c>
+      <c r="E28" s="9" t="n">
+        <v>162275.0</v>
+      </c>
+      <c r="F28" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H28" s="25" t="n">
+        <v>-1916000.0</v>
+      </c>
+      <c r="I28" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J28" s="26" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="29" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B29" s="12"/>
+      <c r="B29" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="8"/>
-      <c r="H29" s="25"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="26"/>
+      <c r="D29" s="4" t="n">
+        <v>482000.0</v>
+      </c>
+      <c r="E29" s="9" t="n">
+        <v>162266.0</v>
+      </c>
+      <c r="F29" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="25" t="n">
+        <v>-482000.0</v>
+      </c>
+      <c r="I29" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J29" s="26" t="s">
+        <v>54</v>
+      </c>
       <c r="L29" s="10"/>
     </row>
     <row r="30" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B30" s="12"/>
-      <c r="C30" s="3"/>
-      <c r="D30" s="4"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="8"/>
-      <c r="H30" s="25"/>
-      <c r="I30" s="4"/>
-      <c r="J30" s="26"/>
+      <c r="C30" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D30" s="4" t="n">
+        <v>482000.0</v>
+      </c>
+      <c r="E30" s="9" t="n">
+        <v>162266.0</v>
+      </c>
+      <c r="F30" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="25" t="n">
+        <v>482000.0</v>
+      </c>
+      <c r="I30" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J30" s="26" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="31" spans="2:12" x14ac:dyDescent="0.35">
       <c r="B31" s="12"/>
-      <c r="C31" s="3"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="8"/>
-      <c r="H31" s="25"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="26"/>
+      <c r="C31" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D31" s="4" t="n">
+        <v>482000.0</v>
+      </c>
+      <c r="E31" s="9" t="n">
+        <v>162266.0</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="H31" s="25" t="n">
+        <v>482000.0</v>
+      </c>
+      <c r="I31" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J31" s="26" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="32" spans="2:12" x14ac:dyDescent="0.35">
-      <c r="B32" s="12"/>
+      <c r="B32" s="12" t="s">
+        <v>159</v>
+      </c>
       <c r="C32" s="3"/>
-      <c r="D32" s="4"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="8"/>
-      <c r="H32" s="25"/>
-      <c r="I32" s="4"/>
-      <c r="J32" s="26"/>
+      <c r="D32" s="4" t="n">
+        <v>511000.0</v>
+      </c>
+      <c r="E32" s="9" t="n">
+        <v>162270.0</v>
+      </c>
+      <c r="F32" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H32" s="25" t="n">
+        <v>-511000.0</v>
+      </c>
+      <c r="I32" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="26" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="12"/>
-      <c r="C33" s="3"/>
-      <c r="D33" s="4"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="8"/>
-      <c r="H33" s="25"/>
-      <c r="I33" s="4"/>
-      <c r="J33" s="26"/>
+      <c r="C33" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="D33" s="4" t="n">
+        <v>511000.0</v>
+      </c>
+      <c r="E33" s="9" t="n">
+        <v>162270.0</v>
+      </c>
+      <c r="F33" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="H33" s="25" t="n">
+        <v>511000.0</v>
+      </c>
+      <c r="I33" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J33" s="26" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="12"/>
-      <c r="C34" s="3"/>
-      <c r="D34" s="4"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="8"/>
-      <c r="H34" s="25"/>
-      <c r="I34" s="4"/>
-      <c r="J34" s="26"/>
+      <c r="C34" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" s="4" t="n">
+        <v>511000.0</v>
+      </c>
+      <c r="E34" s="9" t="n">
+        <v>162270.0</v>
+      </c>
+      <c r="F34" s="8" t="s">
+        <v>178</v>
+      </c>
+      <c r="H34" s="25" t="n">
+        <v>511000.0</v>
+      </c>
+      <c r="I34" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J34" s="26" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="12"/>
+      <c r="B35" s="12" t="s">
+        <v>179</v>
+      </c>
       <c r="C35" s="3"/>
-      <c r="D35" s="4"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="8"/>
-      <c r="H35" s="25"/>
-      <c r="I35" s="4"/>
-      <c r="J35" s="26"/>
+      <c r="D35" s="4" t="n">
+        <v>10715.0</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F35" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="H35" s="25" t="n">
+        <v>-10715.0</v>
+      </c>
+      <c r="I35" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J35" s="26" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="12"/>
+      <c r="B36" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="C36" s="3"/>
-      <c r="D36" s="4"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="8"/>
+      <c r="D36" s="4" t="n">
+        <v>492.15</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" s="8" t="s">
+        <v>181</v>
+      </c>
       <c r="H36" s="25"/>
       <c r="I36" s="4"/>
       <c r="J36" s="26"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="12"/>
-      <c r="C37" s="3"/>
-      <c r="D37" s="4"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="8"/>
-      <c r="H37" s="25"/>
-      <c r="I37" s="4"/>
-      <c r="J37" s="26"/>
+      <c r="C37" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="D37" s="4" t="n">
+        <v>3384474.5</v>
+      </c>
+      <c r="E37" s="9" t="n">
+        <v>158982.0</v>
+      </c>
+      <c r="F37" s="8" t="s">
+        <v>164</v>
+      </c>
+      <c r="H37" s="25" t="n">
+        <v>3384474.5</v>
+      </c>
+      <c r="I37" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J37" s="26" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="12"/>
+      <c r="B38" s="12" t="s">
+        <v>182</v>
+      </c>
       <c r="C38" s="3"/>
-      <c r="D38" s="4"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="8"/>
-      <c r="H38" s="25"/>
-      <c r="I38" s="4"/>
-      <c r="J38" s="26"/>
+      <c r="D38" s="4" t="n">
+        <v>6311000.0</v>
+      </c>
+      <c r="E38" s="9" t="n">
+        <v>162276.0</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H38" s="25" t="n">
+        <v>-6311000.0</v>
+      </c>
+      <c r="I38" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J38" s="26" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="12"/>
+      <c r="B39" s="12" t="s">
+        <v>182</v>
+      </c>
       <c r="C39" s="3"/>
-      <c r="D39" s="4"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="8"/>
-      <c r="H39" s="25"/>
-      <c r="I39" s="4"/>
-      <c r="J39" s="26"/>
+      <c r="D39" s="4" t="n">
+        <v>9286000.0</v>
+      </c>
+      <c r="E39" s="9" t="n">
+        <v>162277.0</v>
+      </c>
+      <c r="F39" s="8" t="s">
+        <v>175</v>
+      </c>
+      <c r="H39" s="25" t="n">
+        <v>-9286000.0</v>
+      </c>
+      <c r="I39" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J39" s="26" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="12"/>
+      <c r="B40" s="12" t="s">
+        <v>180</v>
+      </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="4"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="8"/>
-      <c r="H40" s="25"/>
-      <c r="I40" s="4"/>
-      <c r="J40" s="26"/>
+      <c r="D40" s="4" t="n">
+        <v>12630.0</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" s="8" t="s">
+        <v>146</v>
+      </c>
+      <c r="H40" s="25" t="n">
+        <v>-12630.0</v>
+      </c>
+      <c r="I40" s="4" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="J40" s="26" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="12"/>
@@ -9434,7 +9825,9 @@
       <c r="T4" s="22"/>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B5" s="18"/>
+      <c r="B5" s="18" t="s">
+        <v>177</v>
+      </c>
       <c r="C5" t="s">
         <v>35</v>
       </c>
@@ -9460,16 +9853,16 @@
         <v>42</v>
       </c>
       <c r="K5" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="L5" s="20" t="s">
         <v>39</v>
       </c>
       <c r="M5" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="N5" s="21" t="n">
-        <v>981000.0</v>
+        <v>482000.0</v>
       </c>
       <c r="O5" s="21" t="s">
         <v>39</v>
@@ -9492,7 +9885,7 @@
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B6" s="18" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="C6" t="s">
         <v>35</v>
@@ -9513,22 +9906,22 @@
         <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="J6" t="s">
         <v>42</v>
       </c>
       <c r="K6" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="L6" s="20" t="s">
         <v>39</v>
       </c>
       <c r="M6" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="N6" s="21" t="n">
-        <v>381000.0</v>
+        <v>193042.2</v>
       </c>
       <c r="O6" s="21" t="s">
         <v>39</v>
@@ -9546,12 +9939,12 @@
         <v>43</v>
       </c>
       <c r="T6" s="22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B7" s="18" t="s">
-        <v>129</v>
+        <v>178</v>
       </c>
       <c r="C7" t="s">
         <v>35</v>
@@ -9560,7 +9953,7 @@
         <v>36</v>
       </c>
       <c r="E7" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -9569,25 +9962,25 @@
         <v>39</v>
       </c>
       <c r="H7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="I7" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="J7" t="s">
         <v>42</v>
       </c>
       <c r="K7" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="L7" s="20" t="s">
         <v>39</v>
       </c>
       <c r="M7" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="N7" s="21" t="n">
-        <v>-981000.0</v>
+        <v>511000.0</v>
       </c>
       <c r="O7" s="21" t="s">
         <v>39</v>
@@ -9605,12 +9998,12 @@
         <v>43</v>
       </c>
       <c r="T7" s="22" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B8" s="18" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
         <v>35</v>
@@ -9619,7 +10012,7 @@
         <v>36</v>
       </c>
       <c r="E8" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F8" t="s">
         <v>38</v>
@@ -9628,25 +10021,25 @@
         <v>39</v>
       </c>
       <c r="H8" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="J8" t="s">
         <v>42</v>
       </c>
       <c r="K8" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="L8" s="20" t="s">
         <v>39</v>
       </c>
       <c r="M8" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="N8" s="21" t="n">
-        <v>-381000.0</v>
+        <v>-511000.0</v>
       </c>
       <c r="O8" s="21" t="s">
         <v>39</v>
@@ -9664,12 +10057,12 @@
         <v>43</v>
       </c>
       <c r="T8" s="22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B9" s="18" t="s">
-        <v>125</v>
+        <v>53</v>
       </c>
       <c r="C9" t="s">
         <v>35</v>
@@ -9678,58 +10071,56 @@
         <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F9" t="s">
         <v>38</v>
       </c>
       <c r="G9" t="s">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="H9" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="I9" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="J9" t="s">
         <v>42</v>
       </c>
       <c r="K9" s="20" t="n">
-        <v>45418.0</v>
-      </c>
-      <c r="L9" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
+      </c>
+      <c r="L9" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="M9" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="N9" s="21" t="n">
-        <v>-9273000.0</v>
-      </c>
-      <c r="O9" s="21" t="n">
-        <v>9000000.0</v>
+        <v>-482000.0</v>
+      </c>
+      <c r="O9" s="21" t="s">
+        <v>39</v>
       </c>
       <c r="P9" t="s">
-        <v>59</v>
+        <v>39</v>
       </c>
       <c r="Q9" t="s">
-        <v>60</v>
+        <v>39</v>
       </c>
       <c r="R9" t="s">
         <v>39</v>
       </c>
       <c r="S9" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="T9" s="22" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B10" s="18" t="s">
-        <v>116</v>
-      </c>
+      <c r="B10" s="18"/>
       <c r="C10" t="s">
         <v>35</v>
       </c>
@@ -9737,7 +10128,7 @@
         <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F10" t="s">
         <v>38</v>
@@ -9755,25 +10146,25 @@
         <v>42</v>
       </c>
       <c r="K10" s="20" t="n">
-        <v>45415.0</v>
+        <v>45411.0</v>
       </c>
       <c r="L10" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="M10" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="N10" s="21" t="n">
-        <v>-2030600.0</v>
+        <v>-1723220.04</v>
       </c>
       <c r="O10" s="21" t="n">
-        <v>4615000.0</v>
+        <v>2000000.0</v>
       </c>
       <c r="P10" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="Q10" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="R10" t="s">
         <v>39</v>
@@ -9782,12 +10173,12 @@
         <v>61</v>
       </c>
       <c r="T10" s="22" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B11" s="18" t="s">
-        <v>126</v>
+        <v>171</v>
       </c>
       <c r="C11" s="19" t="s">
         <v>35</v>
@@ -9796,7 +10187,7 @@
         <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
@@ -9808,45 +10199,45 @@
         <v>57</v>
       </c>
       <c r="I11" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J11" t="s">
         <v>42</v>
       </c>
       <c r="K11" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="L11" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="M11" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="N11" s="21" t="n">
-        <v>-821000.0</v>
+        <v>-435000.0</v>
       </c>
       <c r="O11" t="n">
-        <v>1000000.0</v>
+        <v>590000.0</v>
       </c>
       <c r="P11" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="Q11" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="R11" t="s">
         <v>39</v>
       </c>
       <c r="S11" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T11" s="22" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B12" s="18" t="s">
-        <v>116</v>
+        <v>170</v>
       </c>
       <c r="C12" s="19" t="s">
         <v>35</v>
@@ -9855,7 +10246,7 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F12" t="s">
         <v>38</v>
@@ -9867,45 +10258,45 @@
         <v>57</v>
       </c>
       <c r="I12" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J12" t="s">
         <v>42</v>
       </c>
       <c r="K12" s="20" t="n">
-        <v>45415.0</v>
+        <v>45413.0</v>
       </c>
       <c r="L12" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="M12" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="N12" s="21" t="n">
-        <v>-3607058.0</v>
+        <v>-332000.0</v>
       </c>
       <c r="O12" t="n">
-        <v>7500000.0</v>
+        <v>450000.0</v>
       </c>
       <c r="P12" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="Q12" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="R12" t="s">
         <v>39</v>
       </c>
       <c r="S12" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T12" s="22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B13" s="18" t="s">
-        <v>116</v>
+        <v>172</v>
       </c>
       <c r="C13" s="19" t="s">
         <v>35</v>
@@ -9914,7 +10305,7 @@
         <v>36</v>
       </c>
       <c r="E13" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>
@@ -9926,45 +10317,45 @@
         <v>57</v>
       </c>
       <c r="I13" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="J13" t="s">
         <v>42</v>
       </c>
       <c r="K13" s="20" t="n">
-        <v>45415.0</v>
+        <v>45413.0</v>
       </c>
       <c r="L13" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="M13" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="N13" s="21" t="n">
-        <v>-2660625.0</v>
+        <v>-224000.0</v>
       </c>
       <c r="O13" t="n">
-        <v>5500000.0</v>
+        <v>310000.0</v>
       </c>
       <c r="P13" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="Q13" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="R13" t="s">
         <v>39</v>
       </c>
       <c r="S13" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T13" s="22" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B14" s="18" t="s">
-        <v>122</v>
+        <v>173</v>
       </c>
       <c r="C14" s="19" t="s">
         <v>35</v>
@@ -9973,7 +10364,7 @@
         <v>36</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
         <v>38</v>
@@ -9982,48 +10373,48 @@
         <v>56</v>
       </c>
       <c r="H14" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I14" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="J14" t="s">
         <v>42</v>
       </c>
       <c r="K14" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="L14" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="M14" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="N14" s="21" t="n">
-        <v>1299452.81</v>
+        <v>-245000.0</v>
       </c>
       <c r="O14" t="n">
-        <v>-2257000.0</v>
+        <v>340000.0</v>
       </c>
       <c r="P14" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="Q14" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="R14" t="s">
         <v>39</v>
       </c>
       <c r="S14" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T14" s="22" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B15" s="18" t="s">
-        <v>124</v>
+        <v>170</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>35</v>
@@ -10032,7 +10423,7 @@
         <v>36</v>
       </c>
       <c r="E15" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
         <v>38</v>
@@ -10041,48 +10432,48 @@
         <v>56</v>
       </c>
       <c r="H15" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="I15" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
       <c r="J15" t="s">
         <v>42</v>
       </c>
       <c r="K15" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="L15" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="M15" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="N15" s="21" t="n">
-        <v>1.235018686E7</v>
+        <v>-512000.0</v>
       </c>
       <c r="O15" t="n">
-        <v>-1.2E7</v>
+        <v>710000.0</v>
       </c>
       <c r="P15" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="Q15" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="R15" t="s">
         <v>39</v>
       </c>
       <c r="S15" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T15" s="22" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B16" s="18" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="C16" s="19" t="s">
         <v>35</v>
@@ -10091,7 +10482,7 @@
         <v>36</v>
       </c>
       <c r="E16" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="F16" t="s">
         <v>38</v>
@@ -10109,39 +10500,39 @@
         <v>42</v>
       </c>
       <c r="K16" s="20" t="n">
-        <v>45415.0</v>
+        <v>45413.0</v>
       </c>
       <c r="L16" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="M16" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="N16" s="21" t="n">
-        <v>854432.73</v>
+        <v>3449729.73</v>
       </c>
       <c r="O16" t="n">
-        <v>-1068000.0</v>
+        <v>-4050000.0</v>
       </c>
       <c r="P16" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="Q16" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="R16" t="s">
         <v>39</v>
       </c>
       <c r="S16" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="T16" s="22" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B17" s="18" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>35</v>
@@ -10150,7 +10541,7 @@
         <v>36</v>
       </c>
       <c r="E17" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="F17" t="s">
         <v>38</v>
@@ -10168,162 +10559,164 @@
         <v>42</v>
       </c>
       <c r="K17" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="L17" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="M17" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="N17" s="21" t="n">
-        <v>2823252.88</v>
+        <v>808812.29</v>
       </c>
       <c r="O17" t="n">
-        <v>-3557473.0</v>
+        <v>-950000.0</v>
       </c>
       <c r="P17" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="Q17" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="R17" t="s">
         <v>39</v>
       </c>
       <c r="S17" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="T17" s="22" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B18" s="18" t="s">
-        <v>52</v>
-      </c>
+      <c r="B18" s="18"/>
       <c r="C18" s="19" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="D18" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="F18" t="s">
         <v>38</v>
       </c>
       <c r="G18" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H18" t="s">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="I18" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="J18" t="s">
         <v>42</v>
       </c>
       <c r="K18" s="20" t="n">
-        <v>45418.0</v>
-      </c>
-      <c r="L18" t="s">
-        <v>39</v>
+        <v>45411.0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>45413.0</v>
       </c>
       <c r="M18" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="N18" s="21" t="n">
-        <v>381000.0</v>
-      </c>
-      <c r="O18" t="s">
-        <v>39</v>
+        <v>1723220.04</v>
+      </c>
+      <c r="O18" t="n">
+        <v>-2000000.0</v>
       </c>
       <c r="P18" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="Q18" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
       <c r="R18" t="s">
         <v>39</v>
       </c>
       <c r="S18" t="s">
-        <v>43</v>
+        <v>67</v>
       </c>
       <c r="T18" s="22" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B19" s="18"/>
+      <c r="B19" s="18" t="s">
+        <v>175</v>
+      </c>
       <c r="C19" s="19" t="s">
-        <v>96</v>
+        <v>35</v>
       </c>
       <c r="D19" t="s">
-        <v>97</v>
+        <v>36</v>
       </c>
       <c r="E19" t="s">
-        <v>37</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
       </c>
       <c r="G19" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="H19" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="I19" t="s">
-        <v>53</v>
+        <v>64</v>
       </c>
       <c r="J19" t="s">
         <v>42</v>
       </c>
       <c r="K19" s="20" t="n">
-        <v>45418.0</v>
-      </c>
-      <c r="L19" t="s">
-        <v>39</v>
+        <v>45413.0</v>
+      </c>
+      <c r="L19" t="n">
+        <v>45413.0</v>
       </c>
       <c r="M19" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="N19" s="21" t="n">
-        <v>-981000.0</v>
-      </c>
-      <c r="O19" t="s">
-        <v>39</v>
+        <v>-1916000.0</v>
+      </c>
+      <c r="O19" t="n">
+        <v>1.0E7</v>
       </c>
       <c r="P19" t="s">
-        <v>39</v>
+        <v>90</v>
       </c>
       <c r="Q19" t="s">
-        <v>39</v>
+        <v>91</v>
       </c>
       <c r="R19" t="s">
         <v>39</v>
       </c>
       <c r="S19" t="s">
-        <v>43</v>
+        <v>92</v>
       </c>
       <c r="T19" s="22" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B20" s="18"/>
+      <c r="B20" s="18" t="s">
+        <v>175</v>
+      </c>
       <c r="C20" s="19" t="s">
-        <v>100</v>
+        <v>35</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="E20" t="s">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="F20" t="s">
         <v>38</v>
@@ -10335,52 +10728,54 @@
         <v>57</v>
       </c>
       <c r="I20" t="s">
-        <v>102</v>
+        <v>64</v>
       </c>
       <c r="J20" t="s">
-        <v>103</v>
+        <v>42</v>
       </c>
       <c r="K20" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="L20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="M20" s="20" t="n">
-        <v>45418.0</v>
+        <v>45413.0</v>
       </c>
       <c r="N20" s="21" t="n">
-        <v>-3613.19</v>
+        <v>-2437000.0</v>
       </c>
       <c r="O20" t="n">
-        <v>3613.19</v>
+        <v>3600000.0</v>
       </c>
       <c r="P20" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="Q20" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="R20" t="s">
-        <v>106</v>
+        <v>39</v>
       </c>
       <c r="S20" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="T20" s="22" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B21" s="18"/>
+      <c r="B21" s="18" t="s">
+        <v>175</v>
+      </c>
       <c r="C21" s="19" t="s">
-        <v>109</v>
+        <v>35</v>
       </c>
       <c r="D21" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="E21" t="s">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="F21" t="s">
         <v>38</v>
@@ -10389,197 +10784,1153 @@
         <v>56</v>
       </c>
       <c r="H21" t="s">
+        <v>57</v>
+      </c>
+      <c r="I21" t="s">
+        <v>64</v>
+      </c>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+      <c r="K21" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="M21" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N21" s="21" t="n">
+        <v>-2821000.0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>3557473.0</v>
+      </c>
+      <c r="P21" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>100</v>
+      </c>
+      <c r="R21" t="s">
+        <v>39</v>
+      </c>
+      <c r="S21" t="s">
+        <v>92</v>
+      </c>
+      <c r="T21" s="22" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B22" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="C22" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" t="s">
+        <v>38</v>
+      </c>
+      <c r="G22" t="s">
+        <v>56</v>
+      </c>
+      <c r="H22" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" t="s">
+        <v>64</v>
+      </c>
+      <c r="J22" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="M22" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N22" s="21" t="n">
+        <v>-9919000.0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>5.0E7</v>
+      </c>
+      <c r="P22" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>104</v>
+      </c>
+      <c r="R22" t="s">
+        <v>39</v>
+      </c>
+      <c r="S22" t="s">
+        <v>92</v>
+      </c>
+      <c r="T22" s="22" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B23" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C23" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" t="s">
+        <v>106</v>
+      </c>
+      <c r="F23" t="s">
+        <v>38</v>
+      </c>
+      <c r="G23" t="s">
+        <v>56</v>
+      </c>
+      <c r="H23" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" t="s">
+        <v>64</v>
+      </c>
+      <c r="J23" t="s">
+        <v>42</v>
+      </c>
+      <c r="K23" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="M23" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N23" s="21" t="n">
+        <v>-2.7276E7</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2.9587E7</v>
+      </c>
+      <c r="P23" t="s">
+        <v>107</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>108</v>
+      </c>
+      <c r="R23" t="s">
+        <v>39</v>
+      </c>
+      <c r="S23" t="s">
+        <v>92</v>
+      </c>
+      <c r="T23" s="22" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B24" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C24" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" t="s">
+        <v>110</v>
+      </c>
+      <c r="F24" t="s">
+        <v>38</v>
+      </c>
+      <c r="G24" t="s">
+        <v>56</v>
+      </c>
+      <c r="H24" t="s">
+        <v>57</v>
+      </c>
+      <c r="I24" t="s">
+        <v>64</v>
+      </c>
+      <c r="J24" t="s">
+        <v>42</v>
+      </c>
+      <c r="K24" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="M24" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N24" s="21" t="n">
+        <v>-9160000.0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>9924585.0</v>
+      </c>
+      <c r="P24" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>112</v>
+      </c>
+      <c r="R24" t="s">
+        <v>39</v>
+      </c>
+      <c r="S24" t="s">
+        <v>92</v>
+      </c>
+      <c r="T24" s="22" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
+      <c r="B25" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D25" t="s">
+        <v>36</v>
+      </c>
+      <c r="E25" t="s">
+        <v>114</v>
+      </c>
+      <c r="F25" t="s">
+        <v>38</v>
+      </c>
+      <c r="G25" t="s">
+        <v>56</v>
+      </c>
+      <c r="H25" t="s">
         <v>80</v>
       </c>
-      <c r="I21" t="s">
-        <v>110</v>
-      </c>
-      <c r="J21" t="s">
-        <v>103</v>
-      </c>
-      <c r="K21" s="20" t="n">
-        <v>45418.0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>45418.0</v>
-      </c>
-      <c r="M21" s="20" t="n">
-        <v>45418.0</v>
-      </c>
-      <c r="N21" s="21" t="n">
-        <v>11219.16</v>
-      </c>
-      <c r="O21" t="n">
-        <v>-11219.16</v>
-      </c>
-      <c r="P21" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>105</v>
-      </c>
-      <c r="R21" t="s">
-        <v>106</v>
-      </c>
-      <c r="S21" t="s">
-        <v>107</v>
-      </c>
-      <c r="T21" s="22" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B22" s="18"/>
-      <c r="C22" s="19"/>
-      <c r="K22" s="20"/>
-      <c r="M22" s="20"/>
-      <c r="N22" s="21"/>
-      <c r="T22" s="22"/>
-    </row>
-    <row r="23" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B23" s="18"/>
-      <c r="C23" s="19"/>
-      <c r="K23" s="20"/>
-      <c r="M23" s="20"/>
-      <c r="N23" s="21"/>
-      <c r="T23" s="22"/>
-    </row>
-    <row r="24" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B24" s="18"/>
-      <c r="C24" s="19"/>
-      <c r="K24" s="20"/>
-      <c r="M24" s="20"/>
-      <c r="N24" s="21"/>
-      <c r="T24" s="22"/>
-    </row>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B25" s="18"/>
-      <c r="C25" s="19"/>
-      <c r="K25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="21"/>
-      <c r="T25" s="22"/>
+      <c r="I25" t="s">
+        <v>81</v>
+      </c>
+      <c r="J25" t="s">
+        <v>42</v>
+      </c>
+      <c r="K25" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="M25" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N25" s="21" t="n">
+        <v>1.218088988E7</v>
+      </c>
+      <c r="O25" t="n">
+        <v>-1.5357473E7</v>
+      </c>
+      <c r="P25" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>100</v>
+      </c>
+      <c r="R25" t="s">
+        <v>39</v>
+      </c>
+      <c r="S25" t="s">
+        <v>92</v>
+      </c>
+      <c r="T25" s="22" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B26" s="18"/>
-      <c r="C26" s="19"/>
-      <c r="K26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="21"/>
-      <c r="T26" s="22"/>
+      <c r="B26" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C26" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D26" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" t="s">
+        <v>116</v>
+      </c>
+      <c r="F26" t="s">
+        <v>38</v>
+      </c>
+      <c r="G26" t="s">
+        <v>56</v>
+      </c>
+      <c r="H26" t="s">
+        <v>80</v>
+      </c>
+      <c r="I26" t="s">
+        <v>81</v>
+      </c>
+      <c r="J26" t="s">
+        <v>42</v>
+      </c>
+      <c r="K26" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="M26" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N26" s="21" t="n">
+        <v>9313445.29</v>
+      </c>
+      <c r="O26" t="n">
+        <v>-1.0850976E7</v>
+      </c>
+      <c r="P26" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>118</v>
+      </c>
+      <c r="R26" t="s">
+        <v>39</v>
+      </c>
+      <c r="S26" t="s">
+        <v>92</v>
+      </c>
+      <c r="T26" s="22" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B27" s="18"/>
-      <c r="C27" s="19"/>
-      <c r="K27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="21"/>
-      <c r="T27" s="22"/>
+      <c r="B27" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C27" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" t="s">
+        <v>56</v>
+      </c>
+      <c r="H27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" t="s">
+        <v>81</v>
+      </c>
+      <c r="J27" t="s">
+        <v>42</v>
+      </c>
+      <c r="K27" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="M27" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N27" s="21" t="n">
+        <v>6325725.67</v>
+      </c>
+      <c r="O27" t="n">
+        <v>-6384575.0</v>
+      </c>
+      <c r="P27" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>122</v>
+      </c>
+      <c r="R27" t="s">
+        <v>39</v>
+      </c>
+      <c r="S27" t="s">
+        <v>92</v>
+      </c>
+      <c r="T27" s="22" t="s">
+        <v>123</v>
+      </c>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B28" s="18"/>
-      <c r="C28" s="19"/>
-      <c r="K28" s="20"/>
-      <c r="M28" s="20"/>
-      <c r="N28" s="21"/>
-      <c r="T28" s="22"/>
+      <c r="C28" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" t="s">
+        <v>39</v>
+      </c>
+      <c r="F28" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" t="s">
+        <v>56</v>
+      </c>
+      <c r="H28" t="s">
+        <v>57</v>
+      </c>
+      <c r="I28" t="s">
+        <v>124</v>
+      </c>
+      <c r="J28" t="s">
+        <v>42</v>
+      </c>
+      <c r="K28" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="M28" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N28" s="21" t="n">
+        <v>-3369594.0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>3369594.0</v>
+      </c>
+      <c r="P28" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>126</v>
+      </c>
+      <c r="R28" t="s">
+        <v>127</v>
+      </c>
+      <c r="S28" t="s">
+        <v>128</v>
+      </c>
+      <c r="T28" s="22" t="s">
+        <v>129</v>
+      </c>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B29" s="18"/>
-      <c r="C29" s="19"/>
-      <c r="K29" s="20"/>
-      <c r="L29" s="20"/>
-      <c r="M29" s="20"/>
-      <c r="N29" s="21"/>
-      <c r="T29" s="22"/>
+      <c r="C29" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D29" t="s">
+        <v>36</v>
+      </c>
+      <c r="E29" t="s">
+        <v>39</v>
+      </c>
+      <c r="F29" t="s">
+        <v>38</v>
+      </c>
+      <c r="G29" t="s">
+        <v>56</v>
+      </c>
+      <c r="H29" t="s">
+        <v>80</v>
+      </c>
+      <c r="I29" t="s">
+        <v>130</v>
+      </c>
+      <c r="J29" t="s">
+        <v>42</v>
+      </c>
+      <c r="K29" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L29" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="M29" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N29" s="21" t="n">
+        <v>2.637494894E7</v>
+      </c>
+      <c r="O29" t="n">
+        <v>-2.637494894E7</v>
+      </c>
+      <c r="P29" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q29" t="s">
+        <v>126</v>
+      </c>
+      <c r="R29" t="s">
+        <v>127</v>
+      </c>
+      <c r="S29" t="s">
+        <v>128</v>
+      </c>
+      <c r="T29" s="22" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="30" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B30" s="18"/>
-      <c r="C30" s="19"/>
-      <c r="K30" s="20"/>
-      <c r="M30" s="20"/>
-      <c r="N30" s="21"/>
-      <c r="T30" s="22"/>
+      <c r="B30" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="C30" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D30" t="s">
+        <v>133</v>
+      </c>
+      <c r="E30" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" t="s">
+        <v>38</v>
+      </c>
+      <c r="G30" t="s">
+        <v>39</v>
+      </c>
+      <c r="H30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I30" t="s">
+        <v>134</v>
+      </c>
+      <c r="J30" t="s">
+        <v>42</v>
+      </c>
+      <c r="K30" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L30" t="s">
+        <v>39</v>
+      </c>
+      <c r="M30" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N30" s="21" t="n">
+        <v>482000.0</v>
+      </c>
+      <c r="O30" t="s">
+        <v>39</v>
+      </c>
+      <c r="P30" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q30" t="s">
+        <v>39</v>
+      </c>
+      <c r="R30" t="s">
+        <v>39</v>
+      </c>
+      <c r="S30" t="s">
+        <v>43</v>
+      </c>
+      <c r="T30" s="22" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="31" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B31" s="18"/>
-      <c r="C31" s="19"/>
-      <c r="K31" s="20"/>
-      <c r="M31" s="20"/>
-      <c r="N31" s="21"/>
-      <c r="T31" s="22"/>
+      <c r="B31" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D31" t="s">
+        <v>133</v>
+      </c>
+      <c r="E31" t="s">
+        <v>49</v>
+      </c>
+      <c r="F31" t="s">
+        <v>38</v>
+      </c>
+      <c r="G31" t="s">
+        <v>39</v>
+      </c>
+      <c r="H31" t="s">
+        <v>40</v>
+      </c>
+      <c r="I31" t="s">
+        <v>134</v>
+      </c>
+      <c r="J31" t="s">
+        <v>42</v>
+      </c>
+      <c r="K31" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L31" t="s">
+        <v>39</v>
+      </c>
+      <c r="M31" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N31" s="21" t="n">
+        <v>511000.0</v>
+      </c>
+      <c r="O31" t="s">
+        <v>39</v>
+      </c>
+      <c r="P31" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q31" t="s">
+        <v>39</v>
+      </c>
+      <c r="R31" t="s">
+        <v>39</v>
+      </c>
+      <c r="S31" t="s">
+        <v>43</v>
+      </c>
+      <c r="T31" s="22" t="s">
+        <v>136</v>
+      </c>
     </row>
     <row r="32" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B32" s="18"/>
-      <c r="C32" s="19"/>
-      <c r="K32" s="20"/>
-      <c r="M32" s="20"/>
-      <c r="N32" s="21"/>
-      <c r="T32" s="22"/>
+      <c r="C32" s="19" t="s">
+        <v>132</v>
+      </c>
+      <c r="D32" t="s">
+        <v>133</v>
+      </c>
+      <c r="E32" t="s">
+        <v>39</v>
+      </c>
+      <c r="F32" t="s">
+        <v>38</v>
+      </c>
+      <c r="G32" t="s">
+        <v>56</v>
+      </c>
+      <c r="H32" t="s">
+        <v>57</v>
+      </c>
+      <c r="I32" t="s">
+        <v>124</v>
+      </c>
+      <c r="J32" t="s">
+        <v>42</v>
+      </c>
+      <c r="K32" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="M32" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N32" s="21" t="n">
+        <v>-993000.0</v>
+      </c>
+      <c r="O32" t="n">
+        <v>993000.0</v>
+      </c>
+      <c r="P32" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q32" t="s">
+        <v>126</v>
+      </c>
+      <c r="R32" t="s">
+        <v>127</v>
+      </c>
+      <c r="S32" t="s">
+        <v>128</v>
+      </c>
+      <c r="T32" s="22" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="33" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B33" s="18"/>
-      <c r="C33" s="19"/>
-      <c r="K33" s="20"/>
-      <c r="M33" s="20"/>
-      <c r="N33" s="21"/>
-      <c r="T33" s="22"/>
+      <c r="B33" s="18" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D33" t="s">
+        <v>139</v>
+      </c>
+      <c r="E33" t="s">
+        <v>140</v>
+      </c>
+      <c r="F33" t="s">
+        <v>38</v>
+      </c>
+      <c r="G33" t="s">
+        <v>39</v>
+      </c>
+      <c r="H33" t="s">
+        <v>50</v>
+      </c>
+      <c r="I33" t="s">
+        <v>141</v>
+      </c>
+      <c r="J33" t="s">
+        <v>42</v>
+      </c>
+      <c r="K33" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L33" t="s">
+        <v>39</v>
+      </c>
+      <c r="M33" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N33" s="21" t="n">
+        <v>-10715.0</v>
+      </c>
+      <c r="O33" t="s">
+        <v>39</v>
+      </c>
+      <c r="P33" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q33" t="s">
+        <v>39</v>
+      </c>
+      <c r="R33" t="s">
+        <v>39</v>
+      </c>
+      <c r="S33" t="s">
+        <v>43</v>
+      </c>
+      <c r="T33" s="22" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="34" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B34" s="18"/>
-      <c r="C34" s="19"/>
-      <c r="K34" s="20"/>
-      <c r="M34" s="20"/>
-      <c r="N34" s="21"/>
-      <c r="T34" s="22"/>
+      <c r="C34" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="D34" t="s">
+        <v>139</v>
+      </c>
+      <c r="E34" t="s">
+        <v>39</v>
+      </c>
+      <c r="F34" t="s">
+        <v>38</v>
+      </c>
+      <c r="G34" t="s">
+        <v>56</v>
+      </c>
+      <c r="H34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" t="s">
+        <v>130</v>
+      </c>
+      <c r="J34" t="s">
+        <v>42</v>
+      </c>
+      <c r="K34" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L34" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="M34" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N34" s="21" t="n">
+        <v>10715.0</v>
+      </c>
+      <c r="O34" t="n">
+        <v>-10715.0</v>
+      </c>
+      <c r="P34" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q34" t="s">
+        <v>126</v>
+      </c>
+      <c r="R34" t="s">
+        <v>127</v>
+      </c>
+      <c r="S34" t="s">
+        <v>128</v>
+      </c>
+      <c r="T34" s="22" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="35" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B35" s="18"/>
-      <c r="C35" s="19"/>
-      <c r="K35" s="20"/>
-      <c r="M35" s="20"/>
-      <c r="N35" s="21"/>
-      <c r="T35" s="22"/>
+      <c r="B35" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="C35" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D35" t="s">
+        <v>145</v>
+      </c>
+      <c r="E35" t="s">
+        <v>146</v>
+      </c>
+      <c r="F35" t="s">
+        <v>38</v>
+      </c>
+      <c r="G35" t="s">
+        <v>39</v>
+      </c>
+      <c r="H35" t="s">
+        <v>50</v>
+      </c>
+      <c r="I35" t="s">
+        <v>141</v>
+      </c>
+      <c r="J35" t="s">
+        <v>42</v>
+      </c>
+      <c r="K35" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L35" t="s">
+        <v>39</v>
+      </c>
+      <c r="M35" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N35" s="21" t="n">
+        <v>-12630.0</v>
+      </c>
+      <c r="O35" t="s">
+        <v>39</v>
+      </c>
+      <c r="P35" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q35" t="s">
+        <v>39</v>
+      </c>
+      <c r="R35" t="s">
+        <v>39</v>
+      </c>
+      <c r="S35" t="s">
+        <v>43</v>
+      </c>
+      <c r="T35" s="22" t="s">
+        <v>147</v>
+      </c>
     </row>
     <row r="36" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B36" s="18"/>
-      <c r="C36" s="19"/>
-      <c r="K36" s="20"/>
-      <c r="M36" s="20"/>
-      <c r="N36" s="21"/>
-      <c r="T36" s="22"/>
+      <c r="C36" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="D36" t="s">
+        <v>145</v>
+      </c>
+      <c r="E36" t="s">
+        <v>39</v>
+      </c>
+      <c r="F36" t="s">
+        <v>38</v>
+      </c>
+      <c r="G36" t="s">
+        <v>56</v>
+      </c>
+      <c r="H36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s">
+        <v>130</v>
+      </c>
+      <c r="J36" t="s">
+        <v>42</v>
+      </c>
+      <c r="K36" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="M36" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N36" s="21" t="n">
+        <v>12630.0</v>
+      </c>
+      <c r="O36" t="n">
+        <v>-12630.0</v>
+      </c>
+      <c r="P36" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q36" t="s">
+        <v>126</v>
+      </c>
+      <c r="R36" t="s">
+        <v>127</v>
+      </c>
+      <c r="S36" t="s">
+        <v>128</v>
+      </c>
+      <c r="T36" s="22" t="s">
+        <v>148</v>
+      </c>
     </row>
     <row r="37" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B37" s="18"/>
-      <c r="C37" s="19"/>
-      <c r="K37" s="20"/>
-      <c r="M37" s="20"/>
-      <c r="N37" s="21"/>
-      <c r="T37" s="22"/>
+      <c r="B37" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C37" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D37" t="s">
+        <v>150</v>
+      </c>
+      <c r="E37" t="s">
+        <v>151</v>
+      </c>
+      <c r="F37" t="s">
+        <v>38</v>
+      </c>
+      <c r="G37" t="s">
+        <v>56</v>
+      </c>
+      <c r="H37" t="s">
+        <v>57</v>
+      </c>
+      <c r="I37" t="s">
+        <v>64</v>
+      </c>
+      <c r="J37" t="s">
+        <v>42</v>
+      </c>
+      <c r="K37" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="M37" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N37" s="21" t="n">
+        <v>-9286000.0</v>
+      </c>
+      <c r="O37" t="n">
+        <v>1.0850976E7</v>
+      </c>
+      <c r="P37" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q37" t="s">
+        <v>118</v>
+      </c>
+      <c r="R37" t="s">
+        <v>39</v>
+      </c>
+      <c r="S37" t="s">
+        <v>92</v>
+      </c>
+      <c r="T37" s="22" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="38" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B38" s="18"/>
-      <c r="C38" s="19"/>
-      <c r="K38" s="20"/>
-      <c r="M38" s="20"/>
-      <c r="N38" s="21"/>
-      <c r="T38" s="22"/>
+      <c r="B38" s="18" t="s">
+        <v>175</v>
+      </c>
+      <c r="C38" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D38" t="s">
+        <v>150</v>
+      </c>
+      <c r="E38" t="s">
+        <v>153</v>
+      </c>
+      <c r="F38" t="s">
+        <v>38</v>
+      </c>
+      <c r="G38" t="s">
+        <v>56</v>
+      </c>
+      <c r="H38" t="s">
+        <v>57</v>
+      </c>
+      <c r="I38" t="s">
+        <v>64</v>
+      </c>
+      <c r="J38" t="s">
+        <v>42</v>
+      </c>
+      <c r="K38" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="M38" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N38" s="21" t="n">
+        <v>-6311000.0</v>
+      </c>
+      <c r="O38" t="n">
+        <v>6384575.0</v>
+      </c>
+      <c r="P38" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q38" t="s">
+        <v>122</v>
+      </c>
+      <c r="R38" t="s">
+        <v>39</v>
+      </c>
+      <c r="S38" t="s">
+        <v>92</v>
+      </c>
+      <c r="T38" s="22" t="s">
+        <v>154</v>
+      </c>
     </row>
     <row r="39" spans="2:20" x14ac:dyDescent="0.35">
-      <c r="B39" s="18"/>
-      <c r="C39" s="19"/>
-      <c r="K39" s="20"/>
-      <c r="M39" s="20"/>
-      <c r="N39" s="21"/>
-      <c r="T39" s="22"/>
+      <c r="B39" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="C39" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D39" t="s">
+        <v>150</v>
+      </c>
+      <c r="E39" t="s">
+        <v>155</v>
+      </c>
+      <c r="F39" t="s">
+        <v>38</v>
+      </c>
+      <c r="G39" t="s">
+        <v>56</v>
+      </c>
+      <c r="H39" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" t="s">
+        <v>81</v>
+      </c>
+      <c r="J39" t="s">
+        <v>42</v>
+      </c>
+      <c r="K39" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L39" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="M39" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N39" s="21" t="n">
+        <v>3384474.5</v>
+      </c>
+      <c r="O39" t="n">
+        <v>-5000000.0</v>
+      </c>
+      <c r="P39" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q39" t="s">
+        <v>96</v>
+      </c>
+      <c r="R39" t="s">
+        <v>39</v>
+      </c>
+      <c r="S39" t="s">
+        <v>92</v>
+      </c>
+      <c r="T39" s="22" t="s">
+        <v>156</v>
+      </c>
     </row>
     <row r="40" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B40" s="18"/>
-      <c r="C40" s="19"/>
-      <c r="K40" s="20"/>
-      <c r="M40" s="20"/>
-      <c r="N40" s="21"/>
-      <c r="T40" s="22"/>
+      <c r="C40" s="19" t="s">
+        <v>149</v>
+      </c>
+      <c r="D40" t="s">
+        <v>150</v>
+      </c>
+      <c r="E40" t="s">
+        <v>39</v>
+      </c>
+      <c r="F40" t="s">
+        <v>38</v>
+      </c>
+      <c r="G40" t="s">
+        <v>56</v>
+      </c>
+      <c r="H40" t="s">
+        <v>80</v>
+      </c>
+      <c r="I40" t="s">
+        <v>130</v>
+      </c>
+      <c r="J40" t="s">
+        <v>42</v>
+      </c>
+      <c r="K40" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="M40" s="20" t="n">
+        <v>45413.0</v>
+      </c>
+      <c r="N40" s="21" t="n">
+        <v>1.22125255E7</v>
+      </c>
+      <c r="O40" t="n">
+        <v>-1.22125255E7</v>
+      </c>
+      <c r="P40" t="s">
+        <v>125</v>
+      </c>
+      <c r="Q40" t="s">
+        <v>126</v>
+      </c>
+      <c r="R40" t="s">
+        <v>127</v>
+      </c>
+      <c r="S40" t="s">
+        <v>128</v>
+      </c>
+      <c r="T40" s="22" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="41" spans="2:20" x14ac:dyDescent="0.35">
       <c r="B41" s="18"/>
@@ -16516,665 +17867,683 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="31" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="C5" s="32">
         <v>0</v>
       </c>
       <c r="D5" s="33" t="n">
-        <v>8974812.6638</v>
+        <v>0.0</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>1.9871201167E8</v>
+        <v>2.22702450981E8</v>
       </c>
       <c r="F5" s="32">
         <v>0</v>
       </c>
       <c r="G5" s="33" t="n">
-        <v>1635420.52</v>
+        <v>1519474.4900000058</v>
       </c>
       <c r="H5" s="34" t="n">
-        <v>2.972334241E7</v>
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="31" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
       <c r="C6" s="32" t="n">
-        <v>-3607058.0</v>
+        <v>34030.08</v>
       </c>
       <c r="D6" s="33" t="n">
-        <v>5367754.663799999</v>
+        <v>34030.08</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>1.9871201167E8</v>
+        <v>2.22702450981E8</v>
       </c>
       <c r="F6" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G6" s="33" t="n">
-        <v>1635420.52</v>
+        <v>1519474.4900000058</v>
       </c>
       <c r="H6" s="34" t="n">
-        <v>2.972334241E7</v>
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B7" s="31" t="s">
-        <v>116</v>
+        <v>161</v>
       </c>
       <c r="C7" s="32" t="n">
-        <v>-2030600.0</v>
+        <v>-21470.36</v>
       </c>
       <c r="D7" s="33" t="n">
-        <v>3337154.6637999993</v>
+        <v>12559.720000000001</v>
       </c>
       <c r="E7" s="34" t="n">
-        <v>1.9871201167E8</v>
+        <v>2.22702450981E8</v>
       </c>
       <c r="F7" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G7" s="33" t="n">
-        <v>1635420.52</v>
+        <v>1519474.4900000058</v>
       </c>
       <c r="H7" s="34" t="n">
-        <v>2.972334241E7</v>
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B8" s="31" t="s">
-        <v>117</v>
+        <v>162</v>
       </c>
       <c r="C8" s="32" t="n">
         <v>51785.909999999996</v>
       </c>
       <c r="D8" s="33" t="n">
-        <v>3388940.5737999994</v>
+        <v>64345.63</v>
       </c>
       <c r="E8" s="34" t="n">
-        <v>1.9871201167E8</v>
+        <v>2.22702450981E8</v>
       </c>
       <c r="F8" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G8" s="33" t="n">
-        <v>1635420.52</v>
+        <v>1519474.4900000058</v>
       </c>
       <c r="H8" s="34" t="n">
-        <v>2.972334241E7</v>
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B9" s="31" t="s">
-        <v>118</v>
+        <v>163</v>
       </c>
       <c r="C9" s="32" t="n">
-        <v>-21470.36</v>
+        <v>193042.2</v>
       </c>
       <c r="D9" s="33" t="n">
-        <v>3367470.2137999996</v>
+        <v>257387.83000000002</v>
       </c>
       <c r="E9" s="34" t="n">
-        <v>1.9871201167E8</v>
+        <v>2.22702450981E8</v>
       </c>
       <c r="F9" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G9" s="33" t="n">
-        <v>1635420.52</v>
+        <v>1519474.4900000058</v>
       </c>
       <c r="H9" s="34" t="n">
-        <v>2.972334241E7</v>
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B10" s="31" t="s">
-        <v>119</v>
+        <v>164</v>
       </c>
       <c r="C10" s="32" t="n">
-        <v>34030.08</v>
+        <v>9313445.2889</v>
       </c>
       <c r="D10" s="33" t="n">
-        <v>3401500.2937999996</v>
+        <v>9570833.1189</v>
       </c>
       <c r="E10" s="34" t="n">
-        <v>1.9871201167E8</v>
+        <v>2.22702450981E8</v>
       </c>
       <c r="F10" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G10" s="33" t="n">
-        <v>1635420.52</v>
+        <v>1519474.4900000058</v>
       </c>
       <c r="H10" s="34" t="n">
-        <v>2.972334241E7</v>
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B11" s="31" t="s">
-        <v>116</v>
+        <v>164</v>
       </c>
       <c r="C11" s="32" t="n">
-        <v>-2660625.0</v>
+        <v>6325725.6667</v>
       </c>
       <c r="D11" s="33" t="n">
-        <v>740875.2937999996</v>
+        <v>1.58965587856E7</v>
       </c>
       <c r="E11" s="34" t="n">
-        <v>1.9871201167E8</v>
+        <v>2.22702450981E8</v>
       </c>
       <c r="F11" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G11" s="33" t="n">
-        <v>1635420.52</v>
+        <v>1519474.4900000058</v>
       </c>
       <c r="H11" s="34" t="n">
-        <v>2.972334241E7</v>
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B12" s="31" t="s">
-        <v>120</v>
+        <v>165</v>
       </c>
       <c r="C12" s="32" t="n">
-        <v>854432.7344</v>
+        <v>3449729.7348</v>
       </c>
       <c r="D12" s="33" t="n">
-        <v>1595308.0281999996</v>
+        <v>1.93462885204E7</v>
       </c>
       <c r="E12" s="34" t="n">
-        <v>1.9871201167E8</v>
+        <v>2.22702450981E8</v>
       </c>
       <c r="F12" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G12" s="33" t="n">
-        <v>1635420.52</v>
+        <v>1519474.4900000058</v>
       </c>
       <c r="H12" s="34" t="n">
-        <v>2.972334241E7</v>
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="13" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B13" s="31" t="s">
-        <v>121</v>
+        <v>166</v>
       </c>
       <c r="C13" s="32" t="n">
-        <v>854432.7344</v>
+        <v>808812.2882</v>
       </c>
       <c r="D13" s="33" t="n">
-        <v>2449740.7625999996</v>
+        <v>2.0155100808599997E7</v>
       </c>
       <c r="E13" s="34" t="n">
-        <v>1.9871201167E8</v>
+        <v>2.22702450981E8</v>
       </c>
       <c r="F13" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G13" s="33" t="n">
-        <v>1635420.52</v>
+        <v>1519474.4900000058</v>
       </c>
       <c r="H13" s="34" t="n">
-        <v>2.972334241E7</v>
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="14" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B14" s="31" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
       <c r="C14" s="32" t="n">
-        <v>1299452.8122</v>
+        <v>1.2180889875E7</v>
       </c>
       <c r="D14" s="33" t="n">
-        <v>3749193.5747999996</v>
+        <v>3.2335990683599997E7</v>
       </c>
       <c r="E14" s="34" t="n">
-        <v>1.9871201167E8</v>
+        <v>2.22702450981E8</v>
       </c>
       <c r="F14" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G14" s="33" t="n">
-        <v>1635420.52</v>
+        <v>1519474.4900000058</v>
       </c>
       <c r="H14" s="34" t="n">
-        <v>2.972334241E7</v>
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="15" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B15" s="31" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="C15" s="32" t="n">
-        <v>2823252.8819</v>
+        <v>-2426434.0</v>
       </c>
       <c r="D15" s="33" t="n">
-        <v>6572446.456699999</v>
+        <v>2.9909556683599997E7</v>
       </c>
       <c r="E15" s="34" t="n">
-        <v>1.9871201167E8</v>
+        <v>2.22702450981E8</v>
       </c>
       <c r="F15" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G15" s="33" t="n">
-        <v>1635420.52</v>
+        <v>1519474.4900000058</v>
       </c>
       <c r="H15" s="34" t="n">
-        <v>2.972334241E7</v>
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B16" s="31" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
       <c r="C16" s="32" t="n">
-        <v>1.235018686E7</v>
+        <v>-471580.0</v>
       </c>
       <c r="D16" s="33" t="n">
-        <v>1.8922633316699997E7</v>
+        <v>2.9437976683599997E7</v>
       </c>
       <c r="E16" s="34" t="n">
-        <v>1.9871201167E8</v>
+        <v>2.22702450981E8</v>
       </c>
       <c r="F16" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G16" s="33" t="n">
-        <v>1635420.52</v>
+        <v>1519474.4900000058</v>
       </c>
       <c r="H16" s="34" t="n">
-        <v>2.972334241E7</v>
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="17" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B17" s="31" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="C17" s="32" t="n">
-        <v>-9273000.0</v>
+        <v>-471580.0</v>
       </c>
       <c r="D17" s="33" t="n">
-        <v>9649633.316699997</v>
+        <v>2.8966396683599997E7</v>
       </c>
       <c r="E17" s="34" t="n">
-        <v>1.9871201167E8</v>
+        <v>2.22702450981E8</v>
       </c>
       <c r="F17" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G17" s="33" t="n">
-        <v>1635420.52</v>
+        <v>1519474.4900000058</v>
       </c>
       <c r="H17" s="34" t="n">
-        <v>2.972334241E7</v>
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B18" s="31" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
       <c r="C18" s="32" t="n">
-        <v>-821000.0</v>
+        <v>-512000.0</v>
       </c>
       <c r="D18" s="33" t="n">
-        <v>8828633.316699997</v>
+        <v>2.8454396683599997E7</v>
       </c>
       <c r="E18" s="34" t="n">
-        <v>1.9871201167E8</v>
+        <v>2.22702450981E8</v>
       </c>
       <c r="F18" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G18" s="33" t="n">
-        <v>1635420.52</v>
+        <v>1519474.4900000058</v>
       </c>
       <c r="H18" s="34" t="n">
-        <v>2.972334241E7</v>
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="19" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B19" s="31" t="s">
-        <v>52</v>
+        <v>170</v>
       </c>
       <c r="C19" s="32" t="n">
-        <v>-381000.0</v>
+        <v>-332000.0</v>
       </c>
       <c r="D19" s="33" t="n">
-        <v>8447633.316699997</v>
+        <v>2.8122396683599997E7</v>
       </c>
       <c r="E19" s="34" t="n">
-        <v>1.9871201167E8</v>
+        <v>2.22702450981E8</v>
       </c>
       <c r="F19" s="32" t="n">
-        <v>381000.0</v>
+        <v>0.0</v>
       </c>
       <c r="G19" s="33" t="n">
-        <v>2016420.52</v>
+        <v>1519474.4900000058</v>
       </c>
       <c r="H19" s="34" t="n">
-        <v>2.972334241E7</v>
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B20" s="31" t="s">
-        <v>128</v>
+        <v>171</v>
       </c>
       <c r="C20" s="32" t="n">
-        <v>381000.0</v>
+        <v>-435000.0</v>
       </c>
       <c r="D20" s="33" t="n">
-        <v>8828633.316699997</v>
+        <v>2.7687396683599997E7</v>
       </c>
       <c r="E20" s="34" t="n">
-        <v>1.9871201167E8</v>
+        <v>2.22702450981E8</v>
       </c>
       <c r="F20" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G20" s="33" t="n">
-        <v>2016420.52</v>
+        <v>1519474.4900000058</v>
       </c>
       <c r="H20" s="34" t="n">
-        <v>2.972334241E7</v>
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B21" s="31" t="s">
-        <v>129</v>
+        <v>172</v>
       </c>
       <c r="C21" s="32" t="n">
-        <v>-981000.0</v>
+        <v>-224000.0</v>
       </c>
       <c r="D21" s="33" t="n">
-        <v>7847633.316699997</v>
+        <v>2.7463396683599997E7</v>
       </c>
       <c r="E21" s="34" t="n">
-        <v>1.9871201167E8</v>
+        <v>2.22702450981E8</v>
       </c>
       <c r="F21" s="32" t="n">
         <v>0.0</v>
       </c>
       <c r="G21" s="33" t="n">
-        <v>2016420.52</v>
+        <v>1519474.4900000058</v>
       </c>
       <c r="H21" s="34" t="n">
-        <v>2.972334241E7</v>
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B22" s="31" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="C22" s="32" t="n">
-        <v>-51785.909999999996</v>
+        <v>-245000.0</v>
       </c>
       <c r="D22" s="33" t="n">
-        <v>7795847.406699996</v>
+        <v>2.7218396683599997E7</v>
       </c>
       <c r="E22" s="34" t="n">
-        <v>1.9871201167E8</v>
-      </c>
-      <c r="F22" s="32">
-        <v>0</v>
-      </c>
-      <c r="G22" s="33">
-        <v>0</v>
-      </c>
-      <c r="H22" s="34">
-        <v>0</v>
+        <v>2.22702450981E8</v>
+      </c>
+      <c r="F22" s="32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G22" s="33" t="n">
+        <v>1519474.4900000058</v>
+      </c>
+      <c r="H22" s="34" t="n">
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="23" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B23" s="31" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="C23" s="32" t="n">
-        <v>21470.36</v>
+        <v>-9919000.0</v>
       </c>
       <c r="D23" s="33" t="n">
-        <v>7817317.766699997</v>
+        <v>1.7299396683599997E7</v>
       </c>
       <c r="E23" s="34" t="n">
-        <v>1.9871201167E8</v>
-      </c>
-      <c r="F23" s="32">
-        <v>0</v>
-      </c>
-      <c r="G23" s="33">
-        <v>0</v>
-      </c>
-      <c r="H23" s="34">
-        <v>0</v>
+        <v>2.22702450981E8</v>
+      </c>
+      <c r="F23" s="32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G23" s="33" t="n">
+        <v>1519474.4900000058</v>
+      </c>
+      <c r="H23" s="34" t="n">
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B24" s="31" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="C24" s="32" t="n">
-        <v>-34030.08</v>
+        <v>-2437000.0</v>
       </c>
       <c r="D24" s="33" t="n">
-        <v>7783287.686699997</v>
+        <v>1.4862396683599997E7</v>
       </c>
       <c r="E24" s="34" t="n">
-        <v>1.9871201167E8</v>
-      </c>
-      <c r="F24" s="32">
-        <v>0</v>
-      </c>
-      <c r="G24" s="33">
-        <v>0</v>
-      </c>
-      <c r="H24" s="34">
-        <v>0</v>
+        <v>2.22702450981E8</v>
+      </c>
+      <c r="F24" s="32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G24" s="33" t="n">
+        <v>1519474.4900000058</v>
+      </c>
+      <c r="H24" s="34" t="n">
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="25" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B25" s="31" t="s">
-        <v>134</v>
+        <v>175</v>
       </c>
       <c r="C25" s="32" t="n">
-        <v>-854432.7344</v>
+        <v>-2821000.0</v>
       </c>
       <c r="D25" s="33" t="n">
-        <v>6928854.952299997</v>
+        <v>1.2041396683599997E7</v>
       </c>
       <c r="E25" s="34" t="n">
-        <v>1.9871201167E8</v>
-      </c>
-      <c r="F25" s="32">
-        <v>0</v>
-      </c>
-      <c r="G25" s="33">
-        <v>0</v>
-      </c>
-      <c r="H25" s="34">
-        <v>0</v>
+        <v>2.22702450981E8</v>
+      </c>
+      <c r="F25" s="32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G25" s="33" t="n">
+        <v>1519474.4900000058</v>
+      </c>
+      <c r="H25" s="34" t="n">
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B26" s="31"/>
-      <c r="C26" s="32">
-        <v>0</v>
-      </c>
-      <c r="D26" s="33">
-        <v>0</v>
-      </c>
-      <c r="E26" s="34">
-        <v>0</v>
-      </c>
-      <c r="F26" s="32">
-        <v>0</v>
-      </c>
-      <c r="G26" s="33">
-        <v>0</v>
-      </c>
-      <c r="H26" s="34">
-        <v>0</v>
+      <c r="B26" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C26" s="32" t="n">
+        <v>-2.7276E7</v>
+      </c>
+      <c r="D26" s="33" t="n">
+        <v>-1.5234603316400003E7</v>
+      </c>
+      <c r="E26" s="34" t="n">
+        <v>2.22702450981E8</v>
+      </c>
+      <c r="F26" s="32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G26" s="33" t="n">
+        <v>1519474.4900000058</v>
+      </c>
+      <c r="H26" s="34" t="n">
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B27" s="31"/>
-      <c r="C27" s="32">
-        <v>0</v>
-      </c>
-      <c r="D27" s="33">
-        <v>0</v>
-      </c>
-      <c r="E27" s="34">
-        <v>0</v>
-      </c>
-      <c r="F27" s="32">
-        <v>0</v>
-      </c>
-      <c r="G27" s="33">
-        <v>0</v>
-      </c>
-      <c r="H27" s="34">
-        <v>0</v>
+      <c r="B27" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C27" s="32" t="n">
+        <v>-9160000.0</v>
+      </c>
+      <c r="D27" s="33" t="n">
+        <v>-2.4394603316400003E7</v>
+      </c>
+      <c r="E27" s="34" t="n">
+        <v>2.22702450981E8</v>
+      </c>
+      <c r="F27" s="32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G27" s="33" t="n">
+        <v>1519474.4900000058</v>
+      </c>
+      <c r="H27" s="34" t="n">
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B28" s="31"/>
-      <c r="C28" s="32">
-        <v>0</v>
-      </c>
-      <c r="D28" s="33">
-        <v>0</v>
-      </c>
-      <c r="E28" s="34">
-        <v>0</v>
-      </c>
-      <c r="F28" s="32">
-        <v>0</v>
-      </c>
-      <c r="G28" s="33">
-        <v>0</v>
-      </c>
-      <c r="H28" s="34">
-        <v>0</v>
+      <c r="B28" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C28" s="32" t="n">
+        <v>-1916000.0</v>
+      </c>
+      <c r="D28" s="33" t="n">
+        <v>-2.6310603316400003E7</v>
+      </c>
+      <c r="E28" s="34" t="n">
+        <v>2.22702450981E8</v>
+      </c>
+      <c r="F28" s="32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G28" s="33" t="n">
+        <v>1519474.4900000058</v>
+      </c>
+      <c r="H28" s="34" t="n">
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="29" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B29" s="31"/>
-      <c r="C29" s="32">
-        <v>0</v>
-      </c>
-      <c r="D29" s="33">
-        <v>0</v>
-      </c>
-      <c r="E29" s="34">
-        <v>0</v>
-      </c>
-      <c r="F29" s="32">
-        <v>0</v>
-      </c>
-      <c r="G29" s="33">
-        <v>0</v>
-      </c>
-      <c r="H29" s="34">
-        <v>0</v>
+      <c r="B29" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29" s="32" t="n">
+        <v>-482000.0</v>
+      </c>
+      <c r="D29" s="33" t="n">
+        <v>-2.6792603316400003E7</v>
+      </c>
+      <c r="E29" s="34" t="n">
+        <v>2.22702450981E8</v>
+      </c>
+      <c r="F29" s="32" t="n">
+        <v>482000.0</v>
+      </c>
+      <c r="G29" s="33" t="n">
+        <v>2001474.4900000058</v>
+      </c>
+      <c r="H29" s="34" t="n">
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="30" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B30" s="31"/>
-      <c r="C30" s="32">
-        <v>0</v>
-      </c>
-      <c r="D30" s="33">
-        <v>0</v>
-      </c>
-      <c r="E30" s="34">
-        <v>0</v>
-      </c>
-      <c r="F30" s="32">
-        <v>0</v>
-      </c>
-      <c r="G30" s="33">
-        <v>0</v>
-      </c>
-      <c r="H30" s="34">
-        <v>0</v>
+      <c r="B30" s="31" t="s">
+        <v>177</v>
+      </c>
+      <c r="C30" s="32" t="n">
+        <v>482000.0</v>
+      </c>
+      <c r="D30" s="33" t="n">
+        <v>-2.6310603316400003E7</v>
+      </c>
+      <c r="E30" s="34" t="n">
+        <v>2.22702450981E8</v>
+      </c>
+      <c r="F30" s="32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G30" s="33" t="n">
+        <v>2001474.4900000058</v>
+      </c>
+      <c r="H30" s="34" t="n">
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="31" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B31" s="31"/>
-      <c r="C31" s="32">
-        <v>0</v>
-      </c>
-      <c r="D31" s="33">
-        <v>0</v>
-      </c>
-      <c r="E31" s="34">
-        <v>0</v>
-      </c>
-      <c r="F31" s="32">
-        <v>0</v>
-      </c>
-      <c r="G31" s="33">
-        <v>0</v>
-      </c>
-      <c r="H31" s="34">
-        <v>0</v>
+      <c r="B31" s="31" t="s">
+        <v>49</v>
+      </c>
+      <c r="C31" s="32" t="n">
+        <v>-511000.0</v>
+      </c>
+      <c r="D31" s="33" t="n">
+        <v>-2.6821603316400003E7</v>
+      </c>
+      <c r="E31" s="34" t="n">
+        <v>2.22702450981E8</v>
+      </c>
+      <c r="F31" s="32" t="n">
+        <v>511000.0</v>
+      </c>
+      <c r="G31" s="33" t="n">
+        <v>2512474.490000006</v>
+      </c>
+      <c r="H31" s="34" t="n">
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="32" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B32" s="31"/>
-      <c r="C32" s="32">
-        <v>0</v>
-      </c>
-      <c r="D32" s="33">
-        <v>0</v>
-      </c>
-      <c r="E32" s="34">
-        <v>0</v>
-      </c>
-      <c r="F32" s="32">
-        <v>0</v>
-      </c>
-      <c r="G32" s="33">
-        <v>0</v>
-      </c>
-      <c r="H32" s="34">
-        <v>0</v>
+      <c r="B32" s="31" t="s">
+        <v>178</v>
+      </c>
+      <c r="C32" s="32" t="n">
+        <v>511000.0</v>
+      </c>
+      <c r="D32" s="33" t="n">
+        <v>-2.6310603316400003E7</v>
+      </c>
+      <c r="E32" s="34" t="n">
+        <v>2.22702450981E8</v>
+      </c>
+      <c r="F32" s="32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G32" s="33" t="n">
+        <v>2512474.490000006</v>
+      </c>
+      <c r="H32" s="34" t="n">
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B33" s="31"/>
-      <c r="C33" s="32">
-        <v>0</v>
-      </c>
-      <c r="D33" s="33">
-        <v>0</v>
-      </c>
-      <c r="E33" s="34">
-        <v>0</v>
-      </c>
-      <c r="F33" s="32">
-        <v>0</v>
-      </c>
-      <c r="G33" s="33">
-        <v>0</v>
-      </c>
-      <c r="H33" s="34">
-        <v>0</v>
+      <c r="B33" s="31" t="s">
+        <v>140</v>
+      </c>
+      <c r="C33" s="32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D33" s="33" t="n">
+        <v>-2.6310603316400003E7</v>
+      </c>
+      <c r="E33" s="34" t="n">
+        <v>2.22702450981E8</v>
+      </c>
+      <c r="F33" s="32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G33" s="33" t="n">
+        <v>2512474.490000006</v>
+      </c>
+      <c r="H33" s="34" t="n">
+        <v>2.915939638E7</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B34" s="31"/>
-      <c r="C34" s="32">
-        <v>0</v>
-      </c>
-      <c r="D34" s="33">
-        <v>0</v>
-      </c>
-      <c r="E34" s="34">
-        <v>0</v>
+      <c r="B34" s="31" t="s">
+        <v>184</v>
+      </c>
+      <c r="C34" s="32" t="n">
+        <v>2426434.0</v>
+      </c>
+      <c r="D34" s="33" t="n">
+        <v>-2.3884169316400003E7</v>
+      </c>
+      <c r="E34" s="34" t="n">
+        <v>2.22702450981E8</v>
       </c>
       <c r="F34" s="32">
         <v>0</v>
@@ -17187,15 +18556,17 @@
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B35" s="31"/>
-      <c r="C35" s="32">
-        <v>0</v>
-      </c>
-      <c r="D35" s="33">
-        <v>0</v>
-      </c>
-      <c r="E35" s="34">
-        <v>0</v>
+      <c r="B35" s="31" t="s">
+        <v>185</v>
+      </c>
+      <c r="C35" s="32" t="n">
+        <v>21470.36</v>
+      </c>
+      <c r="D35" s="33" t="n">
+        <v>-2.3862698956400003E7</v>
+      </c>
+      <c r="E35" s="34" t="n">
+        <v>2.22702450981E8</v>
       </c>
       <c r="F35" s="32">
         <v>0</v>
@@ -17208,15 +18579,17 @@
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B36" s="31"/>
-      <c r="C36" s="32">
-        <v>0</v>
-      </c>
-      <c r="D36" s="33">
-        <v>0</v>
-      </c>
-      <c r="E36" s="34">
-        <v>0</v>
+      <c r="B36" s="31" t="s">
+        <v>186</v>
+      </c>
+      <c r="C36" s="32" t="n">
+        <v>-34030.08</v>
+      </c>
+      <c r="D36" s="33" t="n">
+        <v>-2.38967290364E7</v>
+      </c>
+      <c r="E36" s="34" t="n">
+        <v>2.22702450981E8</v>
       </c>
       <c r="F36" s="32">
         <v>0</v>
@@ -17229,15 +18602,17 @@
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B37" s="31"/>
-      <c r="C37" s="32">
-        <v>0</v>
-      </c>
-      <c r="D37" s="33">
-        <v>0</v>
-      </c>
-      <c r="E37" s="34">
-        <v>0</v>
+      <c r="B37" s="31" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="32" t="n">
+        <v>471580.0</v>
+      </c>
+      <c r="D37" s="33" t="n">
+        <v>-2.34251490364E7</v>
+      </c>
+      <c r="E37" s="34" t="n">
+        <v>2.22702450981E8</v>
       </c>
       <c r="F37" s="32">
         <v>0</v>
@@ -17250,15 +18625,17 @@
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B38" s="31"/>
-      <c r="C38" s="32">
-        <v>0</v>
-      </c>
-      <c r="D38" s="33">
-        <v>0</v>
-      </c>
-      <c r="E38" s="34">
-        <v>0</v>
+      <c r="B38" s="31" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="32" t="n">
+        <v>471580.0</v>
+      </c>
+      <c r="D38" s="33" t="n">
+        <v>-2.29535690364E7</v>
+      </c>
+      <c r="E38" s="34" t="n">
+        <v>2.22702450981E8</v>
       </c>
       <c r="F38" s="32">
         <v>0</v>
@@ -17271,15 +18648,17 @@
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B39" s="31"/>
-      <c r="C39" s="32">
-        <v>0</v>
-      </c>
-      <c r="D39" s="33">
-        <v>0</v>
-      </c>
-      <c r="E39" s="34">
-        <v>0</v>
+      <c r="B39" s="31" t="s">
+        <v>189</v>
+      </c>
+      <c r="C39" s="32" t="n">
+        <v>-51785.909999999996</v>
+      </c>
+      <c r="D39" s="33" t="n">
+        <v>-2.30053549464E7</v>
+      </c>
+      <c r="E39" s="34" t="n">
+        <v>2.22702450981E8</v>
       </c>
       <c r="F39" s="32">
         <v>0</v>
@@ -40578,7 +41957,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="31" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="C5" s="32">
         <v>0</v>
@@ -40587,7 +41966,7 @@
         <v>0.0</v>
       </c>
       <c r="E5" s="34" t="n">
-        <v>1491448.8567000027</v>
+        <v>1.3673517626700003E7</v>
       </c>
       <c r="F5" s="32">
         <v>0</v>
@@ -40601,7 +41980,7 @@
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B6" s="31" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="C6" s="32" t="n">
         <v>0.0</v>
@@ -40610,7 +41989,7 @@
         <v>0.0</v>
       </c>
       <c r="E6" s="34" t="n">
-        <v>1491448.8567000027</v>
+        <v>1.3673517626700003E7</v>
       </c>
       <c r="F6" s="32" t="n">
         <v>0.0</v>
@@ -40623,87 +42002,95 @@
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B7" s="31"/>
-      <c r="C7" s="32">
-        <v>0</v>
-      </c>
-      <c r="D7" s="33">
-        <v>0</v>
-      </c>
-      <c r="E7" s="34">
-        <v>0</v>
-      </c>
-      <c r="F7" s="32">
-        <v>0</v>
-      </c>
-      <c r="G7" s="33">
-        <v>0</v>
-      </c>
-      <c r="H7" s="34">
-        <v>0</v>
+      <c r="B7" s="31" t="s">
+        <v>164</v>
+      </c>
+      <c r="C7" s="32" t="n">
+        <v>3384474.5</v>
+      </c>
+      <c r="D7" s="33" t="n">
+        <v>3384474.5</v>
+      </c>
+      <c r="E7" s="34" t="n">
+        <v>1.3673517626700003E7</v>
+      </c>
+      <c r="F7" s="32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G7" s="33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H7" s="34" t="n">
+        <v>672346.3899999997</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B8" s="31"/>
-      <c r="C8" s="32">
-        <v>0</v>
-      </c>
-      <c r="D8" s="33">
-        <v>0</v>
-      </c>
-      <c r="E8" s="34">
-        <v>0</v>
-      </c>
-      <c r="F8" s="32">
-        <v>0</v>
-      </c>
-      <c r="G8" s="33">
-        <v>0</v>
-      </c>
-      <c r="H8" s="34">
-        <v>0</v>
+      <c r="B8" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C8" s="32" t="n">
+        <v>-6311000.0</v>
+      </c>
+      <c r="D8" s="33" t="n">
+        <v>-2926525.5</v>
+      </c>
+      <c r="E8" s="34" t="n">
+        <v>1.3673517626700003E7</v>
+      </c>
+      <c r="F8" s="32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G8" s="33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H8" s="34" t="n">
+        <v>672346.3899999997</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B9" s="31"/>
-      <c r="C9" s="32">
-        <v>0</v>
-      </c>
-      <c r="D9" s="33">
-        <v>0</v>
-      </c>
-      <c r="E9" s="34">
-        <v>0</v>
-      </c>
-      <c r="F9" s="32">
-        <v>0</v>
-      </c>
-      <c r="G9" s="33">
-        <v>0</v>
-      </c>
-      <c r="H9" s="34">
-        <v>0</v>
+      <c r="B9" s="31" t="s">
+        <v>175</v>
+      </c>
+      <c r="C9" s="32" t="n">
+        <v>-9286000.0</v>
+      </c>
+      <c r="D9" s="33" t="n">
+        <v>-1.22125255E7</v>
+      </c>
+      <c r="E9" s="34" t="n">
+        <v>1.3673517626700003E7</v>
+      </c>
+      <c r="F9" s="32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G9" s="33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H9" s="34" t="n">
+        <v>672346.3899999997</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.35">
-      <c r="B10" s="31"/>
-      <c r="C10" s="32">
-        <v>0</v>
-      </c>
-      <c r="D10" s="33">
-        <v>0</v>
-      </c>
-      <c r="E10" s="34">
-        <v>0</v>
-      </c>
-      <c r="F10" s="32">
-        <v>0</v>
-      </c>
-      <c r="G10" s="33">
-        <v>0</v>
-      </c>
-      <c r="H10" s="34">
-        <v>0</v>
+      <c r="B10" s="31" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="D10" s="33" t="n">
+        <v>-1.22125255E7</v>
+      </c>
+      <c r="E10" s="34" t="n">
+        <v>1.3673517626700003E7</v>
+      </c>
+      <c r="F10" s="32" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="G10" s="33" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="H10" s="34" t="n">
+        <v>672346.3899999997</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.35">
@@ -64602,7 +65989,7 @@
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.35">
       <c r="B5" s="31" t="s">
-        <v>130</v>
+        <v>183</v>
       </c>
       <c r="C5" s="32">
         <v>0</v>
